--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="19200" windowHeight="12795" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,15 @@
     <sheet name="SPRINT 3 - BACKLOG" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$4:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$4:$L$37</definedName>
     <definedName name="Team_Members">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="89">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -228,27 +233,18 @@
 Dit palet wordt gegenereerd a.d.h.v. een foto, die nog genomen moet worden.</t>
   </si>
   <si>
-    <t>Als administratie wil ik ouderavond-reeksen beheren</t>
-  </si>
-  <si>
     <t>Als administratie wil ik uitnodigingen versturen naar voogden</t>
   </si>
   <si>
     <t>Als voogd wil ik voorkeur aangeven voor post of e-mail</t>
   </si>
   <si>
-    <t>Als voogd wil ik voor (per schoolgaand kind) inschrijven op een ouderavond-reeks</t>
-  </si>
-  <si>
     <t>Als voogd wil ik inschrijvingen kunnen aanpassen (zolang inschrijving open is)</t>
   </si>
   <si>
     <t>Als administratie wil ik, aan de hand van inschrijvingen, een planning maken</t>
   </si>
   <si>
-    <t>als administratie il ik, na de planning, handmatig gesprekken kunnen beheren</t>
-  </si>
-  <si>
     <t>Als administratie wil ik kunnen zoeken naar voogden en/of leerlingen</t>
   </si>
   <si>
@@ -280,6 +276,63 @@
   </si>
   <si>
     <t>Als gebruiker wil ik het lettertype van de interface kunnen aanpassen</t>
+  </si>
+  <si>
+    <t>Als administratie wil ik, na de planning, handmatig gesprekken kunnen beheren</t>
+  </si>
+  <si>
+    <t>Als administratie wil ik ouderavond-reeksen beheren: eenvoudig</t>
+  </si>
+  <si>
+    <t>Als administratie wil ik ouderavond-reeksen beheren: uitgebreid</t>
+  </si>
+  <si>
+    <t>Als voogd wil ik (per schoolgaand kind) inschrijven op een ouderavond-reeks</t>
+  </si>
+  <si>
+    <t>Andra</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>gemiddeld</t>
+  </si>
+  <si>
+    <t>deviatie</t>
+  </si>
+  <si>
+    <t>naar 100</t>
+  </si>
+  <si>
+    <t>ouderavond-reeksen toevoegen</t>
+  </si>
+  <si>
+    <t>ouderavond-reeksen bewerken (status e.d.)</t>
+  </si>
+  <si>
+    <t>tekengrootte aanpassen</t>
+  </si>
+  <si>
+    <t>inplannen op voorkeur</t>
+  </si>
+  <si>
+    <t>planning aanpassen door onmogelijkheden te elimineren</t>
+  </si>
+  <si>
+    <t>afspraken duidelijk weergeven voor in een e-mail of brief</t>
+  </si>
+  <si>
+    <t>planning optimaliseren?</t>
+  </si>
+  <si>
+    <t>ouderavond-reeksen verwijderen</t>
+  </si>
+  <si>
+    <t>e-mail verzenden</t>
   </si>
 </sst>
 </file>
@@ -287,11 +340,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="185" formatCode="[$-413]d/mmm;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-413]d/mmm;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -443,6 +496,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -480,25 +545,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -506,27 +571,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,44 +599,58 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,7 +660,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,7 +740,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="60"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -672,9 +751,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="185" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="60"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -696,11 +786,31 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000099"/>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,7 +861,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32214844572999801"/>
-          <c:y val="3.519061583577713E-2"/>
+          <c:y val="3.5190615835777102E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -771,10 +881,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15212561199142721"/>
-          <c:y val="0.12023460410557185"/>
-          <c:w val="0.81655659377751366"/>
-          <c:h val="0.73607038123167157"/>
+          <c:x val="0.15212561199142699"/>
+          <c:y val="0.120234604105572"/>
+          <c:w val="0.81655659377751399"/>
+          <c:h val="0.73607038123167201"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -799,108 +909,150 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$R$6</c:f>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-413]d/mmm;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>40683</c:v>
+                  <c:v>40868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40684</c:v>
+                  <c:v>40869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40685</c:v>
+                  <c:v>40870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40686</c:v>
+                  <c:v>40871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40687</c:v>
+                  <c:v>40872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40688</c:v>
+                  <c:v>40873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40689</c:v>
+                  <c:v>40874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40690</c:v>
+                  <c:v>40875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40691</c:v>
+                  <c:v>40876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40692</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40693</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40694</c:v>
+                  <c:v>40879</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40695</c:v>
+                  <c:v>40880</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40696</c:v>
+                  <c:v>40881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40697</c:v>
+                  <c:v>40882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$7:$R$7</c:f>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,56 +1073,152 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$-413]d/mmm;@</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>40868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$1:$R$1</c:f>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>36.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34.090909090909086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>29.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>27.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>24.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>22.72727272727272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>20.454545454545446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>18.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.909090909090899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0909090909090793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8181818181818059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5454545454545325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2727272727272596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,11 +1235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45896704"/>
-        <c:axId val="98836480"/>
+        <c:axId val="132591616"/>
+        <c:axId val="58589760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45896704"/>
+        <c:axId val="132591616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1274,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98836480"/>
+        <c:crossAx val="58589760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1037,7 +1285,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98836480"/>
+        <c:axId val="58589760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1081,8 +1329,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8031388933526165E-2"/>
-              <c:y val="0.44281524926686217"/>
+              <c:x val="3.80313889335262E-2"/>
+              <c:y val="0.442815249266862"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1122,7 +1370,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45896704"/>
+        <c:crossAx val="132591616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,8 +1461,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32214835561662175"/>
-          <c:y val="3.519061583577713E-2"/>
+          <c:x val="0.32214835561662197"/>
+          <c:y val="3.5190615835777102E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1234,10 +1482,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15212561199142721"/>
-          <c:y val="0.12023460410557185"/>
-          <c:w val="0.81655659377751366"/>
-          <c:h val="0.73607038123167157"/>
+          <c:x val="0.15212561199142699"/>
+          <c:y val="0.120234604105572"/>
+          <c:w val="0.81655659377751399"/>
+          <c:h val="0.73607038123167201"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1449,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97191936"/>
-        <c:axId val="98838208"/>
+        <c:axId val="132593664"/>
+        <c:axId val="58591488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97191936"/>
+        <c:axId val="132593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1736,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98838208"/>
+        <c:crossAx val="58591488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1498,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98838208"/>
+        <c:axId val="58591488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1542,8 +1790,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.803131991051454E-2"/>
-              <c:y val="0.44281524926686217"/>
+              <c:x val="3.8031319910514498E-2"/>
+              <c:y val="0.442815249266862"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1583,7 +1831,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97191936"/>
+        <c:crossAx val="132593664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,8 +1922,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32214835561662175"/>
-          <c:y val="3.519061583577713E-2"/>
+          <c:x val="0.32214835561662197"/>
+          <c:y val="3.5190615835777102E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1695,10 +1943,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15212561199142721"/>
-          <c:y val="0.12023460410557185"/>
-          <c:w val="0.81655659377751366"/>
-          <c:h val="0.73607038123167157"/>
+          <c:x val="0.15212561199142699"/>
+          <c:y val="0.120234604105572"/>
+          <c:w val="0.81655659377751399"/>
+          <c:h val="0.73607038123167201"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1910,11 +2158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45897728"/>
-        <c:axId val="98839936"/>
+        <c:axId val="133615616"/>
+        <c:axId val="58593216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45897728"/>
+        <c:axId val="133615616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +2197,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98839936"/>
+        <c:crossAx val="58593216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1959,7 +2207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98839936"/>
+        <c:axId val="58593216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2003,8 +2251,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.803131991051454E-2"/>
-              <c:y val="0.44281524926686217"/>
+              <c:x val="3.8031319910514498E-2"/>
+              <c:y val="0.442815249266862"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2044,7 +2292,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45897728"/>
+        <c:crossAx val="133615616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2553,60 +2801,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" customWidth="1"/>
+    <col min="21" max="22" width="8.85546875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
       <c r="N3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
@@ -2643,51 +2893,125 @@
       <c r="L4" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="O4" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30">
+        <f t="shared" ref="F5:K5" si="0">SUM(F1:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f>100/O$24*O5</f>
+        <v>1.8050541516245489</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:T20" si="1">100/P$24*P5</f>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="U5" s="50">
+        <f>AVERAGE(R5:T5)</f>
+        <v>1.8761945211297515</v>
+      </c>
+      <c r="V5" s="50">
+        <f>STDEV(R5:T5)</f>
+        <v>1.0312537492997946</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGE(O5:Q5)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f>MAX(R5:T5)</f>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <f>Z5-X5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H35" si="0">SUM(F5:G5)</f>
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I35" si="1">(H5/$H$36)*100</f>
-        <v>25</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" ref="K5:K35" si="2">(J5/$J$36)*100</f>
-        <v>25</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" ref="L5:L35" si="3">I5/K5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
       <c r="B6" s="24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2695,37 +3019,87 @@
         <v>4</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H24" si="2">SUM(F6:G6)</f>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I24" si="3">(H6/$H$40)*100</f>
+        <v>5.3619302949061662</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K24" si="4">(J6/$J$40)*100</f>
+        <v>0.96670247046186897</v>
+      </c>
+      <c r="L6" s="8">
+        <f>I6/K6</f>
+        <v>5.5466190050640449</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="O6">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R23" si="5">100/O$24*O6</f>
+        <v>7.581227436823105</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="U6" s="50">
+        <f t="shared" ref="U6:U23" si="6">AVERAGE(R6:T6)</f>
+        <v>4.8800169887449565</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" ref="V6:V23" si="7">STDEV(R6:T6)</f>
+        <v>2.6184893466629973</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W23" si="8">AVERAGE(O6:Q6)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y23" si="9">MAX(R6:T6)</f>
+        <v>7.581227436823105</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA23" si="10">Z6-X6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2733,34 +3107,84 @@
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3619302949061662</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="4"/>
+        <v>0.96670247046186897</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L24" si="11">I7/K7</f>
+        <v>5.5466190050640449</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="U7" s="50">
+        <f t="shared" si="6"/>
+        <v>2.4467332059177465</v>
+      </c>
+      <c r="V7" s="50">
+        <f t="shared" si="7"/>
+        <v>1.9509963062951226</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="9"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>58</v>
@@ -2771,37 +3195,87 @@
         <v>4</v>
       </c>
       <c r="F8" s="6">
+        <v>89</v>
+      </c>
+      <c r="G8" s="6">
+        <v>89</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>47.721179624664877</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>10.955961331901182</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="11"/>
+        <v>4.3557272775061762</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>1.0830324909747293</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="U8" s="50">
+        <f t="shared" si="6"/>
+        <v>1.8315990656190275</v>
+      </c>
+      <c r="V8" s="50">
+        <f t="shared" si="7"/>
+        <v>0.98026597255662717</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="9"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -2809,37 +3283,87 @@
         <v>4</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3619302949061662</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="11"/>
+        <v>3.3279714030384269</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>21</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="U9" s="50">
+        <f t="shared" si="6"/>
+        <v>5.1918312451334323</v>
+      </c>
+      <c r="V9" s="50">
+        <f t="shared" si="7"/>
+        <v>0.85274648273545695</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="9"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -2847,37 +3371,87 @@
         <v>4</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3619302949061662</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="11"/>
+        <v>3.3279714030384269</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>1.8050541516245489</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="U10" s="50">
+        <f t="shared" si="6"/>
+        <v>4.2291356976003405</v>
+      </c>
+      <c r="V10" s="50">
+        <f t="shared" si="7"/>
+        <v>2.2243619187537016</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -2885,37 +3459,87 @@
         <v>4</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1447721179624666</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.64446831364124602</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="11"/>
+        <v>3.3279714030384273</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>89</v>
+      </c>
+      <c r="P11">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>89</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>32.129963898916969</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>26.176470588235293</v>
+      </c>
+      <c r="U11" s="50">
+        <f t="shared" si="6"/>
+        <v>30.21979188787428</v>
+      </c>
+      <c r="V11" s="50">
+        <f t="shared" si="7"/>
+        <v>3.5033933643914517</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="X11">
+        <v>34</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="9"/>
+        <v>32.352941176470587</v>
+      </c>
+      <c r="Z11">
+        <v>34</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -2923,37 +3547,87 @@
         <v>4</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8257372654155493</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="11"/>
+        <v>2.9951742627345839</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>34</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>7.581227436823105</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U12" s="50">
+        <f t="shared" si="6"/>
+        <v>6.8408013024704468</v>
+      </c>
+      <c r="V12" s="50">
+        <f t="shared" si="7"/>
+        <v>3.5871883906715305</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -2961,37 +3635,87 @@
         <v>4</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>4.5576407506702417</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="11"/>
+        <v>2.828775692582663</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>21</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>1.8050541516245489</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="U13" s="50">
+        <f t="shared" si="6"/>
+        <v>3.2487435407375949</v>
+      </c>
+      <c r="V13" s="50">
+        <f t="shared" si="7"/>
+        <v>2.5355662571101352</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -2999,37 +3723,87 @@
         <v>4</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3619302949061662</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="11"/>
+        <v>2.0799821268990168</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>3.8235294117647061</v>
+      </c>
+      <c r="U14" s="50">
+        <f t="shared" si="6"/>
+        <v>3.8192822255255892</v>
+      </c>
+      <c r="V14" s="50">
+        <f t="shared" si="7"/>
+        <v>0.87598988394055777</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -3037,37 +3811,87 @@
         <v>4</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1447721179624666</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="11"/>
+        <v>1.3311885612153709</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U15" s="50">
+        <f t="shared" si="6"/>
+        <v>5.8781057549373541</v>
+      </c>
+      <c r="V15" s="50">
+        <f t="shared" si="7"/>
+        <v>3.6755753118979086</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3075,37 +3899,87 @@
         <v>4</v>
       </c>
       <c r="F16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6085790884718498</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="11"/>
+        <v>0.99839142091152799</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>1.8050541516245489</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="U16" s="50">
+        <f t="shared" si="6"/>
+        <v>2.9546258936787715</v>
+      </c>
+      <c r="V16" s="50">
+        <f t="shared" si="7"/>
+        <v>1.541174694049926</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="9"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I16" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -3113,37 +3987,87 @@
         <v>4</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6085790884718498</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="11"/>
+        <v>0.99839142091152799</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="U17" s="50">
+        <f t="shared" si="6"/>
+        <v>4.6035959510157856</v>
+      </c>
+      <c r="V17" s="50">
+        <f t="shared" si="7"/>
+        <v>3.0892087888394291</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="9"/>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -3151,37 +4075,87 @@
         <v>4</v>
       </c>
       <c r="F18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0723860589812333</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6111707841031151</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="11"/>
+        <v>0.66559428060768544</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>7.581227436823105</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="U18" s="50">
+        <f t="shared" si="6"/>
+        <v>5.5662914985488783</v>
+      </c>
+      <c r="V18" s="50">
+        <f t="shared" si="7"/>
+        <v>2.3794447111526247</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>7.581227436823105</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -3189,37 +4163,87 @@
         <v>4</v>
       </c>
       <c r="F19" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6085790884718498</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="11"/>
+        <v>0.62399463806970501</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>1.0830324909747293</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="U19" s="50">
+        <f t="shared" si="6"/>
+        <v>1.7335598499327531</v>
+      </c>
+      <c r="V19" s="50">
+        <f t="shared" si="7"/>
+        <v>0.63552700483621738</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <f t="shared" si="9"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -3227,37 +4251,87 @@
         <v>4</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6085790884718498</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="11"/>
+        <v>0.62399463806970501</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>1.8050541516245489</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>3.8235294117647061</v>
+      </c>
+      <c r="U20" s="50">
+        <f t="shared" si="6"/>
+        <v>3.4448219721101441</v>
+      </c>
+      <c r="V20" s="50">
+        <f t="shared" si="7"/>
+        <v>1.4870324667019719</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -3271,31 +4345,81 @@
         <v>1</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>0.53619302949061665</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>0.96670247046186897</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0.55466190050640451</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>4.6931407942238268</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S23" si="12">100/P$24*P21</f>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:T23" si="13">100/Q$24*Q21</f>
+        <v>3.8235294117647061</v>
+      </c>
+      <c r="U21" s="50">
+        <f t="shared" si="6"/>
+        <v>5.3879096765059815</v>
+      </c>
+      <c r="V21" s="50">
+        <f t="shared" si="7"/>
+        <v>2.0042135965256143</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -3303,545 +4427,478 @@
         <v>4</v>
       </c>
       <c r="F22" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3404825737265416</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="11"/>
+        <v>0.51999553172475421</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>2.8880866425992782</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="12"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="13"/>
+        <v>3.8235294117647061</v>
+      </c>
+      <c r="U22" s="50">
+        <f t="shared" si="6"/>
+        <v>3.8058328024350536</v>
+      </c>
+      <c r="V22" s="50">
+        <f t="shared" si="7"/>
+        <v>0.90902705604436052</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="9"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I22" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="24"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>17</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3404825737265416</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="11"/>
+        <v>0.51999553172475421</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>2.8880866425992782</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="12"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="13"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="U23" s="50">
+        <f t="shared" si="6"/>
+        <v>2.0411269200821125</v>
+      </c>
+      <c r="V23" s="50">
+        <f t="shared" si="7"/>
+        <v>0.74808547389494162</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="X23">
         <v>2</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="3"/>
+      <c r="Y23">
+        <f t="shared" si="9"/>
+        <v>2.8880866425992782</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>1.0723860589812333</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>2.5778732545649841</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0.41599642537980341</v>
+      </c>
+      <c r="O24">
+        <f>SUM(O5:O23)</f>
+        <v>277</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:Q24" si="14">SUM(P5:P23)</f>
+        <v>170</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="14"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="O25">
+        <f>100/((P24+Q24)/2)*O24</f>
+        <v>108.62745098039215</v>
+      </c>
+      <c r="P25">
+        <f>100/((O24+Q24)/2)*P24</f>
+        <v>55.105348460291737</v>
+      </c>
+      <c r="Q25">
+        <f>100/((O24+P24)/2)*Q24</f>
+        <v>152.12527964205816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <f>SUM(J6:J24)</f>
+        <v>133</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <f>J26/3</f>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L28" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K29" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L30" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J31" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K31" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I34" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30">
-        <f t="shared" ref="F36:K36" si="4">SUM(F32:F35)</f>
-        <v>4</v>
-      </c>
-      <c r="G36" s="30">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H36" s="30">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I36" s="30">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="J36" s="30">
-        <f t="shared" si="4"/>
-        <v>4000</v>
-      </c>
-      <c r="K36" s="30">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>0</v>
+      <c r="A36" s="5"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <f>SUM(H6:H37)</f>
+        <v>373</v>
+      </c>
+      <c r="J40" s="1">
+        <f>SUM(J6:J37)</f>
+        <v>310.33333333333331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L36">
-    <sortState ref="A5:L36">
-      <sortCondition descending="1" ref="H4:H36"/>
+  <autoFilter ref="A4:L37">
+    <sortState ref="A5:L37">
+      <sortCondition descending="1" ref="L4:L37"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E35">
+  <conditionalFormatting sqref="V5:V23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFFA0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E36">
       <formula1>"Feature, Bug, Infrastructuur, Nieuwe feature"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3903,8 +4960,13 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3913,124 +4975,124 @@
   <dimension ref="A3:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="53"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="53"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="53"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="53"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="53"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="53"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="53"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="53"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="53"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="53"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="53"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="53"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="53"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="53"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="53"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="53"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="53"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="53"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="53"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="53"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="53"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="53"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="53"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="53"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="53"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="53"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="53"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="53"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="54"/>
+      <c r="D35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4039,123 +5101,157 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="101.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1" s="23">
-        <f>D7/15</f>
-        <v>0</v>
+        <f>D7/22</f>
+        <v>2.2727272727272729</v>
       </c>
       <c r="D1" s="23">
         <f>D7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E1" s="23">
         <f>D1-C1</f>
-        <v>0</v>
+        <v>47.727272727272727</v>
       </c>
       <c r="F1" s="23">
         <f>E1-C1</f>
-        <v>0</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="G1" s="23">
         <f>F1-C1</f>
-        <v>0</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="H1" s="23">
         <f>G1-C1</f>
-        <v>0</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="I1" s="23">
         <f>H1-C1</f>
-        <v>0</v>
+        <v>38.636363636363633</v>
       </c>
       <c r="J1" s="23">
         <f>I1-C1</f>
-        <v>0</v>
+        <v>36.36363636363636</v>
       </c>
       <c r="K1" s="23">
         <f>J1-C1</f>
-        <v>0</v>
+        <v>34.090909090909086</v>
       </c>
       <c r="L1" s="23">
         <f>K1-C1</f>
-        <v>0</v>
+        <v>31.818181818181813</v>
       </c>
       <c r="M1" s="23">
         <f>L1-C1</f>
-        <v>0</v>
+        <v>29.54545454545454</v>
       </c>
       <c r="N1" s="23">
         <f>M1-C1</f>
-        <v>0</v>
+        <v>27.272727272727266</v>
       </c>
       <c r="O1" s="23">
         <f>N1-C1</f>
-        <v>0</v>
+        <v>24.999999999999993</v>
       </c>
       <c r="P1" s="23">
         <f>O1-C1</f>
-        <v>0</v>
+        <v>22.72727272727272</v>
       </c>
       <c r="Q1" s="23">
         <f>P1-C1</f>
-        <v>0</v>
+        <v>20.454545454545446</v>
       </c>
       <c r="R1" s="23">
         <f>Q1-C1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+        <v>18.181818181818173</v>
+      </c>
+      <c r="S1" s="23">
+        <f>R1-C1</f>
+        <v>15.909090909090899</v>
+      </c>
+      <c r="T1" s="23">
+        <f>S1-C1</f>
+        <v>13.636363636363626</v>
+      </c>
+      <c r="U1" s="23">
+        <f>T1-C1</f>
+        <v>11.363636363636353</v>
+      </c>
+      <c r="V1" s="23">
+        <f>U1-C1</f>
+        <v>9.0909090909090793</v>
+      </c>
+      <c r="W1" s="23">
+        <f>V1-C1</f>
+        <v>6.8181818181818059</v>
+      </c>
+      <c r="X1" s="23">
+        <f>W1-C1</f>
+        <v>4.5454545454545325</v>
+      </c>
+      <c r="Y1" s="23">
+        <f>X1-C1</f>
+        <v>2.2727272727272596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4181,57 +5277,57 @@
       <c r="U3" s="45"/>
       <c r="V3" s="45"/>
     </row>
-    <row r="4" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="14"/>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
       <c r="V4" s="45"/>
     </row>
-    <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="14"/>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
       <c r="V5" s="45"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -4242,56 +5338,73 @@
         <v>0</v>
       </c>
       <c r="D6" s="48">
-        <v>40683</v>
+        <v>40868</v>
       </c>
       <c r="E6" s="48">
-        <v>40684</v>
+        <v>40869</v>
       </c>
       <c r="F6" s="48">
-        <v>40685</v>
+        <v>40870</v>
       </c>
       <c r="G6" s="48">
-        <v>40686</v>
+        <v>40871</v>
       </c>
       <c r="H6" s="48">
-        <v>40687</v>
+        <v>40872</v>
       </c>
       <c r="I6" s="48">
-        <v>40688</v>
+        <v>40873</v>
       </c>
       <c r="J6" s="48">
-        <v>40689</v>
+        <v>40874</v>
       </c>
       <c r="K6" s="48">
-        <v>40690</v>
+        <v>40875</v>
       </c>
       <c r="L6" s="48">
-        <v>40691</v>
+        <v>40876</v>
       </c>
       <c r="M6" s="48">
-        <v>40692</v>
+        <v>40877</v>
       </c>
       <c r="N6" s="48">
-        <v>40693</v>
+        <v>40878</v>
       </c>
       <c r="O6" s="48">
-        <v>40694</v>
+        <v>40879</v>
       </c>
       <c r="P6" s="48">
-        <v>40695</v>
+        <v>40880</v>
       </c>
       <c r="Q6" s="48">
-        <v>40696</v>
+        <v>40881</v>
       </c>
       <c r="R6" s="48">
-        <v>40697</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40882</v>
+      </c>
+      <c r="S6" s="48">
+        <v>40883</v>
+      </c>
+      <c r="T6" s="48">
+        <v>40884</v>
+      </c>
+      <c r="U6" s="48">
+        <v>40885</v>
+      </c>
+      <c r="V6" s="48">
+        <v>40886</v>
+      </c>
+      <c r="W6" s="48">
+        <v>40887</v>
+      </c>
+      <c r="X6" s="48">
+        <v>40888</v>
+      </c>
+      <c r="Y6" s="48">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
@@ -4302,105 +5415,178 @@
         <v>33</v>
       </c>
       <c r="D7" s="41">
-        <f>SUM(D8:D16)</f>
-        <v>0</v>
+        <f>SUM(D8:D21)</f>
+        <v>50</v>
       </c>
       <c r="E7" s="41">
-        <f t="shared" ref="E7:R7" si="0">SUM(E8:E16)</f>
-        <v>0</v>
+        <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
+        <v>53</v>
       </c>
       <c r="F7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="P7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="S7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="T7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="U7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="W7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="X7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Y7" s="41">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="20">
-        <f>SUM(C10:C17)</f>
-        <v>0</v>
+        <f>SUM(C10:C22)</f>
+        <v>50</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="E8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="35" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -4416,525 +5602,1159 @@
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
       <c r="D10" s="15">
-        <f t="shared" ref="D10:E10" si="1">C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" ref="G10:Y10" si="1">F10</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" ref="F10" si="2">E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" ref="G10" si="3">F10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" ref="H10" si="4">G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" ref="I10" si="5">H10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" ref="J10" si="6">I10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" ref="K10" si="7">J10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" ref="L10" si="8">K10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" ref="M10" si="9">L10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" ref="N10" si="10">M10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" ref="O10" si="11">N10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P10" s="15">
-        <f t="shared" ref="P10" si="12">O10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" ref="Q10" si="13">P10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" ref="R10" si="14">Q10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
       <c r="D11" s="15">
-        <f t="shared" ref="D10:R11" si="15">C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" ref="F11:Y11" si="2">F11</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:Y14" si="3">E12</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14" si="4">C14</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:D18" si="5">C16</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:T19" si="6">D16</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" ref="F16:F18" si="7">E16</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" ref="G16:G18" si="8">F16</f>
+        <v>10</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" ref="H16:H18" si="9">G16</f>
+        <v>10</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" ref="I16:I18" si="10">H16</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" ref="J16:J18" si="11">I16</f>
+        <v>10</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" ref="K16:K18" si="12">J16</f>
+        <v>10</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" ref="L16:L18" si="13">K16</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" ref="M16:M18" si="14">L16</f>
+        <v>10</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" ref="N16:N18" si="15">M16</f>
+        <v>10</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" ref="O16:O18" si="16">N16</f>
+        <v>10</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" ref="P16:P18" si="17">O16</f>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" ref="Q16:Q18" si="18">P16</f>
+        <v>10</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" ref="R16:R18" si="19">Q16</f>
+        <v>10</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" ref="S16:S18" si="20">R16</f>
+        <v>10</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" ref="T16:T18" si="21">S16</f>
+        <v>10</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" ref="U16:U18" si="22">T16</f>
+        <v>10</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" ref="V16:V18" si="23">U16</f>
+        <v>10</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" ref="W16:W18" si="24">V16</f>
+        <v>10</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" ref="X16:X18" si="25">W16</f>
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" ref="Y16:Y18" si="26">X16</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="N17" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
+        <v>19</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="15">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" ref="H11" si="16">G11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" ref="J11" si="17">I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" ref="E11:R11" si="18">K11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="15">
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <f t="shared" ref="D12:D16" si="19">C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" ref="E12:E16" si="20">D12</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" ref="F12:F16" si="21">E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" ref="G12:G16" si="22">F12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" ref="H12:H16" si="23">G12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" ref="I12:I16" si="24">H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" ref="J12:J16" si="25">I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" ref="K12:K16" si="26">J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" ref="L12:L16" si="27">K12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" ref="M12:M16" si="28">L12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" ref="N12:N16" si="29">M12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" ref="O12:O16" si="30">N12</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" ref="P12:P16" si="31">O12</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" ref="Q12:Q16" si="32">P12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" ref="R12:R16" si="33">Q12</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
+        <v>5</v>
+      </c>
+      <c r="R18" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="S18" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="T18" s="15">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="U18" s="15">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
+        <v>5</v>
+      </c>
+      <c r="V18" s="15">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
+        <v>5</v>
+      </c>
+      <c r="W18" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
+        <v>5</v>
+      </c>
+      <c r="X18" s="15">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="15">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:D21" si="27">C20</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:T21" si="28">D20</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" ref="F20:F21" si="29">E20</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" ref="G20:G21" si="30">F20</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" ref="H20:H21" si="31">G20</f>
+        <v>5</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" ref="I20:I21" si="32">H20</f>
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" ref="J20:J21" si="33">I20</f>
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" ref="K20:K21" si="34">J20</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" ref="L20:L21" si="35">K20</f>
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" ref="M20:M21" si="36">L20</f>
+        <v>5</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" ref="N20:N21" si="37">M20</f>
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" ref="O20:O21" si="38">N20</f>
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" ref="P20:P21" si="39">O20</f>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" ref="Q20:Q21" si="40">P20</f>
+        <v>5</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" ref="R20:R21" si="41">Q20</f>
+        <v>5</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" ref="S20:S21" si="42">R20</f>
+        <v>5</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20:T21" si="43">S20</f>
+        <v>5</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" ref="U20:U21" si="44">T20</f>
+        <v>5</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" ref="V20:V21" si="45">U20</f>
+        <v>5</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" ref="W20:W21" si="46">V20</f>
+        <v>5</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" ref="X20:X21" si="47">W20</f>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" ref="Y20:Y21" si="48">X20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
+        <v>5</v>
+      </c>
+      <c r="E21" s="15">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
+        <v>5</v>
+      </c>
+      <c r="H21" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
+        <v>5</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4948,12 +6768,17 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V21"/>
@@ -4962,7 +6787,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -5039,27 +6864,27 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
@@ -5094,23 +6919,23 @@
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="14"/>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
@@ -5118,23 +6943,23 @@
     </row>
     <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="14"/>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
@@ -5851,22 +7676,27 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -5943,27 +7773,27 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
@@ -5998,23 +7828,23 @@
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
       <c r="S4" s="14"/>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
@@ -6022,23 +7852,23 @@
     </row>
     <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="14"/>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
@@ -6755,8 +8585,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -1010,49 +1010,49 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,11 +1235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132591616"/>
-        <c:axId val="58589760"/>
+        <c:axId val="114237440"/>
+        <c:axId val="62524224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="132591616"/>
+        <c:axId val="114237440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1274,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58589760"/>
+        <c:crossAx val="62524224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1285,7 +1285,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58589760"/>
+        <c:axId val="62524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1370,7 +1370,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132591616"/>
+        <c:crossAx val="114237440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132593664"/>
-        <c:axId val="58591488"/>
+        <c:axId val="114239488"/>
+        <c:axId val="62525376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132593664"/>
+        <c:axId val="114239488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1736,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58591488"/>
+        <c:crossAx val="62525376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1746,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58591488"/>
+        <c:axId val="62525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1831,7 +1831,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132593664"/>
+        <c:crossAx val="114239488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2158,11 +2158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133615616"/>
-        <c:axId val="58593216"/>
+        <c:axId val="114384896"/>
+        <c:axId val="62523072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133615616"/>
+        <c:axId val="114384896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2197,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58593216"/>
+        <c:crossAx val="62523072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2207,7 +2207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58593216"/>
+        <c:axId val="62523072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2292,7 +2292,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133615616"/>
+        <c:crossAx val="114384896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5116,8 +5116,8 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5444,63 +5444,63 @@
       </c>
       <c r="K7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="U7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="W7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="X7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="41">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" ref="F11:Y11" si="2">F11</f>
+        <f t="shared" ref="G11:Y11" si="2">F11</f>
         <v>1</v>
       </c>
       <c r="H11" s="15">
@@ -6152,7 +6152,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16:T19" si="6">D16</f>
+        <f t="shared" ref="E16:E18" si="6">D16</f>
         <v>10</v>
       </c>
       <c r="F16" s="15">
@@ -6522,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" ref="E20:T21" si="28">D20</f>
+        <f t="shared" ref="E20:E21" si="28">D20</f>
         <v>5</v>
       </c>
       <c r="F20" s="15">
@@ -6643,64 +6643,61 @@
         <v>5</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="34"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="40"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" si="41"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" si="42"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T21" s="15">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U21" s="15">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V21" s="15">
         <f t="shared" si="45"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W21" s="15">
         <f t="shared" si="46"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X21" s="15">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="15">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">

--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,72 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gms</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>gms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+This displays the number of hours remaining. Adjust this each day to reflect how long you think there is still left. When a task is completed then set all other days to 0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gms</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>gms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+This displays the number of hours remaining. Adjust this each day to reflect how long you think there is still left. When a task is completed then set all other days to 0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="73">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -75,9 +139,6 @@
   </si>
   <si>
     <t>Feature</t>
-  </si>
-  <si>
-    <t>Story B</t>
   </si>
   <si>
     <t>SPRINT 1</t>
@@ -115,55 +176,7 @@
     <t>In de eerste sprint wordt gewerkt aan het opzetten van de website</t>
   </si>
   <si>
-    <t>Story A</t>
-  </si>
-  <si>
     <t>DOEL</t>
-  </si>
-  <si>
-    <t>Dag 1</t>
-  </si>
-  <si>
-    <t>Dag 2</t>
-  </si>
-  <si>
-    <t>Dag 3</t>
-  </si>
-  <si>
-    <t>Dag 4</t>
-  </si>
-  <si>
-    <t>Dag 5</t>
-  </si>
-  <si>
-    <t>Dag 6</t>
-  </si>
-  <si>
-    <t>Dag 7</t>
-  </si>
-  <si>
-    <t>Dag 8</t>
-  </si>
-  <si>
-    <t>Dag 9</t>
-  </si>
-  <si>
-    <t>Dag 10</t>
-  </si>
-  <si>
-    <t>Dag 11</t>
-  </si>
-  <si>
-    <t>Dag 12</t>
-  </si>
-  <si>
-    <t>Dag 13</t>
-  </si>
-  <si>
-    <t>Dag 14</t>
-  </si>
-  <si>
-    <t>Dag 15</t>
   </si>
   <si>
     <t>Uren werk nog te doen ---&gt;</t>
@@ -173,15 +186,6 @@
   </si>
   <si>
     <t>ITEM OMSCHRIJVING</t>
-  </si>
-  <si>
-    <t>Taak 1</t>
-  </si>
-  <si>
-    <t>Taak 2</t>
-  </si>
-  <si>
-    <t>Taak 3</t>
   </si>
   <si>
     <t>RISICO OMSCHRIJVING</t>
@@ -221,9 +225,6 @@
   </si>
   <si>
     <t>TOTALEN</t>
-  </si>
-  <si>
-    <t>Taak 4</t>
   </si>
   <si>
     <t>Relatieve boete</t>
@@ -334,14 +335,28 @@
   <si>
     <t>e-mail verzenden</t>
   </si>
+  <si>
+    <t>Als adminstratie wil ik docenten de afspraken toe kunnen sturen</t>
+  </si>
+  <si>
+    <t>mogelijk maken om zelf een of meerdere e-mail adres(sen) in te voeren</t>
+  </si>
+  <si>
+    <t>een e-mail sturen met een zelf ingevoerde titel en tekst</t>
+  </si>
+  <si>
+    <t>testdata aanpassen zodat er geen fysieke onmogelijkheden meer zijn</t>
+  </si>
+  <si>
+    <t>mogelijk maken om een uitnodiging naar alle voogden te sturen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-413]d/mmm;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
@@ -650,7 +665,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,12 +709,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -740,17 +749,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="60"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="60"/>
     </xf>
@@ -785,6 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="60"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1235,17 +1238,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114237440"/>
-        <c:axId val="62524224"/>
+        <c:axId val="45354496"/>
+        <c:axId val="65511424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114237440"/>
+        <c:axId val="45354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-413]d\/mmm;@" sourceLinked="0"/>
+        <c:numFmt formatCode="[$-413]d/mmm;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1258,7 +1261,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1274,7 +1277,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62524224"/>
+        <c:crossAx val="65511424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1285,7 +1288,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="62524224"/>
+        <c:axId val="65511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1370,7 +1373,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114237440"/>
+        <c:crossAx val="45354496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,108 +1512,151 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'SPRINT 2 - BACKLOG'!$D$6:$R$6</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>'SPRINT 2 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Dag 1</c:v>
+                  <c:v>41256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dag 2</c:v>
+                  <c:v>41257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dag 3</c:v>
+                  <c:v>41258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dag 4</c:v>
+                  <c:v>41259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dag 5</c:v>
+                  <c:v>41260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dag 6</c:v>
+                  <c:v>41261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dag 7</c:v>
+                  <c:v>41262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dag 8</c:v>
+                  <c:v>41263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dag 9</c:v>
+                  <c:v>41264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Dag 10</c:v>
+                  <c:v>41265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Dag 11</c:v>
+                  <c:v>41266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dag 12</c:v>
+                  <c:v>41267</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dag 13</c:v>
+                  <c:v>41268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Dag 14</c:v>
+                  <c:v>41269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Dag 15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>41270</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 2 - BACKLOG'!$D$7:$R$7</c:f>
+              <c:f>'SPRINT 2 - BACKLOG'!$D$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,56 +1677,152 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SPRINT 2 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>41256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41270</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 2 - BACKLOG'!$D$1:$R$1</c:f>
+              <c:f>'SPRINT 2 - BACKLOG'!$D$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>36.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34.090909090909086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>29.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>27.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>24.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>22.72727272727272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>20.454545454545446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>18.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.909090909090899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0909090909090793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8181818181818059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5454545454545325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2727272727272596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,17 +1839,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114239488"/>
-        <c:axId val="62525376"/>
+        <c:axId val="45191680"/>
+        <c:axId val="65513152"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="114239488"/>
+      <c:dateAx>
+        <c:axId val="45191680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1720,7 +1862,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1736,17 +1878,16 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62525376"/>
+        <c:crossAx val="65513152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="62525376"/>
+        <c:axId val="65513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1831,7 +1972,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114239488"/>
+        <c:crossAx val="45191680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1970,57 +2111,58 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'SPRINT 3 - BACKLOG'!$D$6:$R$6</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>[$-413]d/mmm;@</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Dag 1</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dag 2</c:v>
+                  <c:v>40913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dag 3</c:v>
+                  <c:v>40914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dag 4</c:v>
+                  <c:v>40915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dag 5</c:v>
+                  <c:v>40916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dag 6</c:v>
+                  <c:v>40917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dag 7</c:v>
+                  <c:v>40918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dag 8</c:v>
+                  <c:v>40919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dag 9</c:v>
+                  <c:v>40920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Dag 10</c:v>
+                  <c:v>40921</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Dag 11</c:v>
+                  <c:v>40922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dag 12</c:v>
+                  <c:v>40923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dag 13</c:v>
+                  <c:v>40924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Dag 14</c:v>
+                  <c:v>40925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Dag 15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>40926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2029,49 +2171,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,49 +2241,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>36.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34.090909090909086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>29.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>27.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>24.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>22.72727272727272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>20.454545454545446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>18.181818181818173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,17 +2300,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114384896"/>
-        <c:axId val="62523072"/>
+        <c:axId val="45192192"/>
+        <c:axId val="65514880"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="114384896"/>
+      <c:dateAx>
+        <c:axId val="45192192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-413]d/mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2197,17 +2339,16 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62523072"/>
+        <c:crossAx val="65514880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="62523072"/>
+        <c:axId val="65514880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2292,7 +2433,608 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114384896"/>
+        <c:crossAx val="45192192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333399"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>SPRINT BURNDOWN CHART</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32214844572999801"/>
+          <c:y val="3.5190615835777102E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15212561199142699"/>
+          <c:y val="0.120234604105572"/>
+          <c:w val="0.81655659377751399"/>
+          <c:h val="0.73607038123167201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hours Effort Remaining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$-413]d/mmm;@</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>40868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$-413]d/mmm;@</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>40868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 1 - BACKLOG'!$D$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.090909090909086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.454545454545446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.909090909090899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0909090909090793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8181818181818059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5454545454545325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2727272727272596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="68416512"/>
+        <c:axId val="91863232"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="68416512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-413]d/mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91863232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="1"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="91863232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Uren</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.80313889335262E-2"/>
+              <c:y val="0.442815249266862"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2383,8 +3125,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4676775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -2445,6 +3187,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5353050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2807,7 +3581,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2824,7 +3598,7 @@
     <col min="11" max="11" width="4.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" customWidth="1"/>
-    <col min="21" max="22" width="8.85546875" style="50"/>
+    <col min="21" max="22" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -2838,121 +3612,121 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
       <c r="N3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="50" t="s">
-        <v>78</v>
+      <c r="P4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30">
+      <c r="A5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
         <f t="shared" ref="F5:K5" si="0">SUM(F1:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="N5">
@@ -2979,11 +3753,11 @@
         <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="45">
         <f>AVERAGE(R5:T5)</f>
         <v>1.8761945211297515</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="45">
         <f>STDEV(R5:T5)</f>
         <v>1.0312537492997946</v>
       </c>
@@ -3010,11 +3784,11 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3067,11 +3841,11 @@
         <f t="shared" si="1"/>
         <v>2.3529411764705883</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="45">
         <f t="shared" ref="U6:U23" si="6">AVERAGE(R6:T6)</f>
         <v>4.8800169887449565</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="45">
         <f t="shared" ref="V6:V23" si="7">STDEV(R6:T6)</f>
         <v>2.6184893466629973</v>
       </c>
@@ -3098,11 +3872,11 @@
       <c r="A7" s="5">
         <v>19</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3155,11 +3929,11 @@
         <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="45">
         <f t="shared" si="6"/>
         <v>2.4467332059177465</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7" s="45">
         <f t="shared" si="7"/>
         <v>1.9509963062951226</v>
       </c>
@@ -3186,11 +3960,11 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3243,11 +4017,11 @@
         <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="45">
         <f t="shared" si="6"/>
         <v>1.8315990656190275</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="45">
         <f t="shared" si="7"/>
         <v>0.98026597255662717</v>
       </c>
@@ -3274,11 +4048,11 @@
       <c r="A9" s="5">
         <v>10</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
@@ -3331,11 +4105,11 @@
         <f t="shared" si="1"/>
         <v>6.1764705882352944</v>
       </c>
-      <c r="U9" s="50">
+      <c r="U9" s="45">
         <f t="shared" si="6"/>
         <v>5.1918312451334323</v>
       </c>
-      <c r="V9" s="50">
+      <c r="V9" s="45">
         <f t="shared" si="7"/>
         <v>0.85274648273545695</v>
       </c>
@@ -3362,11 +4136,11 @@
       <c r="A10" s="5">
         <v>18</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
@@ -3419,11 +4193,11 @@
         <f t="shared" si="1"/>
         <v>6.1764705882352944</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="45">
         <f t="shared" si="6"/>
         <v>4.2291356976003405</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="45">
         <f t="shared" si="7"/>
         <v>2.2243619187537016</v>
       </c>
@@ -3450,11 +4224,11 @@
       <c r="A11" s="5">
         <v>15</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3507,11 +4281,11 @@
         <f t="shared" si="1"/>
         <v>26.176470588235293</v>
       </c>
-      <c r="U11" s="50">
+      <c r="U11" s="45">
         <f t="shared" si="6"/>
         <v>30.21979188787428</v>
       </c>
-      <c r="V11" s="50">
+      <c r="V11" s="45">
         <f t="shared" si="7"/>
         <v>3.5033933643914517</v>
       </c>
@@ -3538,11 +4312,11 @@
       <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3595,11 +4369,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U12" s="50">
+      <c r="U12" s="45">
         <f t="shared" si="6"/>
         <v>6.8408013024704468</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="45">
         <f t="shared" si="7"/>
         <v>3.5871883906715305</v>
       </c>
@@ -3626,11 +4400,11 @@
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="5" t="s">
         <v>4</v>
       </c>
@@ -3683,11 +4457,11 @@
         <f t="shared" si="1"/>
         <v>6.1764705882352944</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="45">
         <f t="shared" si="6"/>
         <v>3.2487435407375949</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="45">
         <f t="shared" si="7"/>
         <v>2.5355662571101352</v>
       </c>
@@ -3714,11 +4488,11 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
@@ -3771,11 +4545,11 @@
         <f t="shared" si="1"/>
         <v>3.8235294117647061</v>
       </c>
-      <c r="U14" s="50">
+      <c r="U14" s="45">
         <f t="shared" si="6"/>
         <v>3.8192822255255892</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="45">
         <f t="shared" si="7"/>
         <v>0.87598988394055777</v>
       </c>
@@ -3802,11 +4576,11 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3859,11 +4633,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U15" s="50">
+      <c r="U15" s="45">
         <f t="shared" si="6"/>
         <v>5.8781057549373541</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="45">
         <f t="shared" si="7"/>
         <v>3.6755753118979086</v>
       </c>
@@ -3890,11 +4664,11 @@
       <c r="A16" s="5">
         <v>6</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
@@ -3947,11 +4721,11 @@
         <f t="shared" si="1"/>
         <v>2.3529411764705883</v>
       </c>
-      <c r="U16" s="50">
+      <c r="U16" s="45">
         <f t="shared" si="6"/>
         <v>2.9546258936787715</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16" s="45">
         <f t="shared" si="7"/>
         <v>1.541174694049926</v>
       </c>
@@ -3978,11 +4752,11 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
@@ -4035,11 +4809,11 @@
         <f t="shared" si="1"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="U17" s="50">
+      <c r="U17" s="45">
         <f t="shared" si="6"/>
         <v>4.6035959510157856</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="45">
         <f t="shared" si="7"/>
         <v>3.0892087888394291</v>
       </c>
@@ -4066,11 +4840,11 @@
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4123,11 +4897,11 @@
         <f t="shared" si="1"/>
         <v>6.1764705882352944</v>
       </c>
-      <c r="U18" s="50">
+      <c r="U18" s="45">
         <f t="shared" si="6"/>
         <v>5.5662914985488783</v>
       </c>
-      <c r="V18" s="50">
+      <c r="V18" s="45">
         <f t="shared" si="7"/>
         <v>2.3794447111526247</v>
       </c>
@@ -4154,11 +4928,11 @@
       <c r="A19" s="5">
         <v>13</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4211,11 +4985,11 @@
         <f t="shared" si="1"/>
         <v>2.3529411764705883</v>
       </c>
-      <c r="U19" s="50">
+      <c r="U19" s="45">
         <f t="shared" si="6"/>
         <v>1.7335598499327531</v>
       </c>
-      <c r="V19" s="50">
+      <c r="V19" s="45">
         <f t="shared" si="7"/>
         <v>0.63552700483621738</v>
       </c>
@@ -4242,11 +5016,11 @@
       <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
@@ -4299,11 +5073,11 @@
         <f t="shared" si="1"/>
         <v>3.8235294117647061</v>
       </c>
-      <c r="U20" s="50">
+      <c r="U20" s="45">
         <f t="shared" si="6"/>
         <v>3.4448219721101441</v>
       </c>
-      <c r="V20" s="50">
+      <c r="V20" s="45">
         <f t="shared" si="7"/>
         <v>1.4870324667019719</v>
       </c>
@@ -4330,11 +5104,11 @@
       <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
         <v>4</v>
       </c>
@@ -4387,11 +5161,11 @@
         <f t="shared" ref="T21:T23" si="13">100/Q$24*Q21</f>
         <v>3.8235294117647061</v>
       </c>
-      <c r="U21" s="50">
+      <c r="U21" s="45">
         <f t="shared" si="6"/>
         <v>5.3879096765059815</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21" s="45">
         <f t="shared" si="7"/>
         <v>2.0042135965256143</v>
       </c>
@@ -4418,11 +5192,11 @@
       <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="5" t="s">
         <v>4</v>
       </c>
@@ -4475,11 +5249,11 @@
         <f t="shared" si="13"/>
         <v>3.8235294117647061</v>
       </c>
-      <c r="U22" s="50">
+      <c r="U22" s="45">
         <f t="shared" si="6"/>
         <v>3.8058328024350536</v>
       </c>
-      <c r="V22" s="50">
+      <c r="V22" s="45">
         <f t="shared" si="7"/>
         <v>0.90902705604436052</v>
       </c>
@@ -4506,11 +5280,11 @@
       <c r="A23" s="5">
         <v>17</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
@@ -4563,11 +5337,11 @@
         <f t="shared" si="13"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="U23" s="50">
+      <c r="U23" s="45">
         <f t="shared" si="6"/>
         <v>2.0411269200821125</v>
       </c>
-      <c r="V23" s="50">
+      <c r="V23" s="45">
         <f t="shared" si="7"/>
         <v>0.74808547389494162</v>
       </c>
@@ -4594,11 +5368,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4642,9 +5416,9 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -4668,9 +5442,9 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -4685,9 +5459,9 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -4702,9 +5476,9 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -4716,9 +5490,9 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4730,9 +5504,9 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -4744,9 +5518,9 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -4758,9 +5532,9 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -4772,9 +5546,9 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4786,9 +5560,9 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -4800,9 +5574,9 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -4814,9 +5588,9 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -4828,9 +5602,9 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4902,33 +5676,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>40</v>
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4948,9 +5722,9 @@
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4985,114 +5759,114 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="57" t="s">
-        <v>13</v>
+      <c r="D3" s="52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="58"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="58"/>
+      <c r="A5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="58"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="58"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="58"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="58"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="58"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="58"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="53"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="53"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="53"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="53"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="58"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="58"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="58"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="58"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="58"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="58"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="58"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="58"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="58"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="58"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="58"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="58"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="58"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="58"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="58"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="58"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="58"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="59"/>
+      <c r="D35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5116,13 +5890,13 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101.28515625" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
@@ -5132,128 +5906,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="23">
+      <c r="C1" s="21">
         <f>D7/22</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="21">
         <f>D7</f>
         <v>50</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="21">
         <f>D1-C1</f>
         <v>47.727272727272727</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1" s="21">
         <f>E1-C1</f>
         <v>45.454545454545453</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1" s="21">
         <f>F1-C1</f>
         <v>43.18181818181818</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="21">
         <f>G1-C1</f>
         <v>40.909090909090907</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1" s="21">
         <f>H1-C1</f>
         <v>38.636363636363633</v>
       </c>
-      <c r="J1" s="23">
+      <c r="J1" s="21">
         <f>I1-C1</f>
         <v>36.36363636363636</v>
       </c>
-      <c r="K1" s="23">
+      <c r="K1" s="21">
         <f>J1-C1</f>
         <v>34.090909090909086</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1" s="21">
         <f>K1-C1</f>
         <v>31.818181818181813</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1" s="21">
         <f>L1-C1</f>
         <v>29.54545454545454</v>
       </c>
-      <c r="N1" s="23">
+      <c r="N1" s="21">
         <f>M1-C1</f>
         <v>27.272727272727266</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="21">
         <f>N1-C1</f>
         <v>24.999999999999993</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1" s="21">
         <f>O1-C1</f>
         <v>22.72727272727272</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1" s="21">
         <f>P1-C1</f>
         <v>20.454545454545446</v>
       </c>
-      <c r="R1" s="23">
+      <c r="R1" s="21">
         <f>Q1-C1</f>
         <v>18.181818181818173</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1" s="21">
         <f>R1-C1</f>
         <v>15.909090909090899</v>
       </c>
-      <c r="T1" s="23">
+      <c r="T1" s="21">
         <f>S1-C1</f>
         <v>13.636363636363626</v>
       </c>
-      <c r="U1" s="23">
+      <c r="U1" s="21">
         <f>T1-C1</f>
         <v>11.363636363636353</v>
       </c>
-      <c r="V1" s="23">
+      <c r="V1" s="21">
         <f>U1-C1</f>
         <v>9.0909090909090793</v>
       </c>
-      <c r="W1" s="23">
+      <c r="W1" s="21">
         <f>V1-C1</f>
         <v>6.8181818181818059</v>
       </c>
-      <c r="X1" s="23">
+      <c r="X1" s="21">
         <f>W1-C1</f>
         <v>4.5454545454545325</v>
       </c>
-      <c r="Y1" s="23">
+      <c r="Y1" s="21">
         <f>X1-C1</f>
         <v>2.2727272727272596</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
+      <c r="A2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5273,59 +6047,59 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="1:25" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -5337,282 +6111,282 @@
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="43">
         <v>40868</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="43">
         <v>40869</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="43">
         <v>40870</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="43">
         <v>40871</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="43">
         <v>40872</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="43">
         <v>40873</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="43">
         <v>40874</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="43">
         <v>40875</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="43">
         <v>40876</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="43">
         <v>40877</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="43">
         <v>40878</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="43">
         <v>40879</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="43">
         <v>40880</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="43">
         <v>40881</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="43">
         <v>40882</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="43">
         <v>40883</v>
       </c>
-      <c r="T6" s="48">
+      <c r="T6" s="43">
         <v>40884</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="43">
         <v>40885</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="43">
         <v>40886</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="43">
         <v>40887</v>
       </c>
-      <c r="X6" s="48">
+      <c r="X6" s="43">
         <v>40888</v>
       </c>
-      <c r="Y6" s="48">
+      <c r="Y6" s="43">
         <v>40889</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="A7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="39">
         <f>SUM(D8:D21)</f>
         <v>50</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
         <v>53</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="39">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="W7" s="41">
+      <c r="W7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="Y7" s="41">
+      <c r="Y7" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39"/>
+      <c r="A8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="20">
         <f>SUM(C10:C22)</f>
         <v>50</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="42" t="s">
+      <c r="D8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
+      <c r="A9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="15">
@@ -5706,7 +6480,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="15">
@@ -5800,7 +6574,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="15">
@@ -5894,83 +6668,83 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="35" t="s">
+      <c r="A13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="15">
@@ -6065,83 +6839,83 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="35" t="s">
+      <c r="A15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="15">
@@ -6238,7 +7012,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -6337,7 +7111,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
@@ -6435,83 +7209,83 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="35" t="s">
+      <c r="A19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="15">
@@ -6546,7 +7320,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ref="K20:K21" si="34">J20</f>
+        <f t="shared" ref="K20" si="34">J20</f>
         <v>5</v>
       </c>
       <c r="L20" s="15">
@@ -6574,11 +7348,11 @@
         <v>5</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20:R21" si="41">Q20</f>
+        <f t="shared" ref="R20" si="41">Q20</f>
         <v>5</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20:S21" si="42">R20</f>
+        <f t="shared" ref="S20" si="42">R20</f>
         <v>5</v>
       </c>
       <c r="T20" s="15">
@@ -6608,7 +7382,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="15">
@@ -6701,57 +7475,57 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
+      <c r="A25" s="47"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="47"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="47"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6774,121 +7548,147 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C1" s="23">
-        <f>D7/15</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="23">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C1" s="21">
+        <f>D7/22</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="D1" s="21">
         <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="23">
+        <v>50</v>
+      </c>
+      <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="23">
+        <v>47.727272727272727</v>
+      </c>
+      <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="23">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="23">
+        <v>43.18181818181818</v>
+      </c>
+      <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="23">
+        <v>40.909090909090907</v>
+      </c>
+      <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="23">
+        <v>38.636363636363633</v>
+      </c>
+      <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="23">
+        <v>36.36363636363636</v>
+      </c>
+      <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="L1" s="23">
+        <v>34.090909090909086</v>
+      </c>
+      <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="M1" s="23">
+        <v>31.818181818181813</v>
+      </c>
+      <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="23">
+        <v>29.54545454545454</v>
+      </c>
+      <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="23">
+        <v>27.272727272727266</v>
+      </c>
+      <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="23">
+        <v>24.999999999999993</v>
+      </c>
+      <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="23">
+        <v>22.72727272727272</v>
+      </c>
+      <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="R1" s="23">
+        <v>20.454545454545446</v>
+      </c>
+      <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>18.181818181818173</v>
+      </c>
+      <c r="S1" s="21">
+        <f>R1-C1</f>
+        <v>15.909090909090899</v>
+      </c>
+      <c r="T1" s="21">
+        <f>S1-C1</f>
+        <v>13.636363636363626</v>
+      </c>
+      <c r="U1" s="21">
+        <f>T1-C1</f>
+        <v>11.363636363636353</v>
+      </c>
+      <c r="V1" s="21">
+        <f>U1-C1</f>
+        <v>9.0909090909090793</v>
+      </c>
+      <c r="W1" s="21">
+        <f>V1-C1</f>
+        <v>6.8181818181818059</v>
+      </c>
+      <c r="X1" s="21">
+        <f>W1-C1</f>
+        <v>4.5454545454545325</v>
+      </c>
+      <c r="Y1" s="21">
+        <f>X1-C1</f>
+        <v>2.2727272727272596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6908,61 +7708,61 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-    </row>
-    <row r="4" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -6972,698 +7772,1414 @@
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="59">
+        <v>41256</v>
+      </c>
+      <c r="E6" s="59">
+        <v>41257</v>
+      </c>
+      <c r="F6" s="59">
+        <v>41258</v>
+      </c>
+      <c r="G6" s="59">
+        <v>41259</v>
+      </c>
+      <c r="H6" s="59">
+        <v>41260</v>
+      </c>
+      <c r="I6" s="59">
+        <v>41261</v>
+      </c>
+      <c r="J6" s="59">
+        <v>41262</v>
+      </c>
+      <c r="K6" s="59">
+        <v>41263</v>
+      </c>
+      <c r="L6" s="59">
+        <v>41264</v>
+      </c>
+      <c r="M6" s="59">
+        <v>41265</v>
+      </c>
+      <c r="N6" s="59">
+        <v>41266</v>
+      </c>
+      <c r="O6" s="59">
+        <v>41267</v>
+      </c>
+      <c r="P6" s="59">
+        <v>41268</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>41269</v>
+      </c>
+      <c r="R6" s="59">
+        <v>41270</v>
+      </c>
+      <c r="S6" s="59">
+        <v>41271</v>
+      </c>
+      <c r="T6" s="59">
+        <v>41272</v>
+      </c>
+      <c r="U6" s="59">
+        <v>41273</v>
+      </c>
+      <c r="V6" s="59">
+        <v>41274</v>
+      </c>
+      <c r="W6" s="59">
+        <v>41275</v>
+      </c>
+      <c r="X6" s="59">
+        <v>41276</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>41277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7:R7" si="0">SUM(D8:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39"/>
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="39">
+        <f>SUM(D8:D22)</f>
+        <v>50</v>
+      </c>
+      <c r="E7" s="39">
+        <f>SUM(E8:E22)</f>
+        <v>53</v>
+      </c>
+      <c r="F7" s="39">
+        <f>SUM(F8:F22)</f>
+        <v>49</v>
+      </c>
+      <c r="G7" s="39">
+        <f>SUM(G8:G22)</f>
+        <v>49</v>
+      </c>
+      <c r="H7" s="39">
+        <f>SUM(H8:H22)</f>
+        <v>49</v>
+      </c>
+      <c r="I7" s="39">
+        <f>SUM(I8:I22)</f>
+        <v>49</v>
+      </c>
+      <c r="J7" s="39">
+        <f>SUM(J8:J22)</f>
+        <v>49</v>
+      </c>
+      <c r="K7" s="39">
+        <f>SUM(K8:K22)</f>
+        <v>48</v>
+      </c>
+      <c r="L7" s="39">
+        <f>SUM(L8:L22)</f>
+        <v>48</v>
+      </c>
+      <c r="M7" s="39">
+        <f>SUM(M8:M22)</f>
+        <v>48</v>
+      </c>
+      <c r="N7" s="39">
+        <f>SUM(N8:N22)</f>
+        <v>48</v>
+      </c>
+      <c r="O7" s="39">
+        <f>SUM(O8:O22)</f>
+        <v>48</v>
+      </c>
+      <c r="P7" s="39">
+        <f>SUM(P8:P22)</f>
+        <v>48</v>
+      </c>
+      <c r="Q7" s="39">
+        <f>SUM(Q8:Q22)</f>
+        <v>48</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(R8:R22)</f>
+        <v>47</v>
+      </c>
+      <c r="S7" s="39">
+        <f>SUM(S8:S22)</f>
+        <v>44</v>
+      </c>
+      <c r="T7" s="39">
+        <f>SUM(T8:T22)</f>
+        <v>44</v>
+      </c>
+      <c r="U7" s="39">
+        <f>SUM(U8:U22)</f>
+        <v>44</v>
+      </c>
+      <c r="V7" s="39">
+        <f>SUM(V8:V22)</f>
+        <v>44</v>
+      </c>
+      <c r="W7" s="39">
+        <f>SUM(W8:W22)</f>
+        <v>44</v>
+      </c>
+      <c r="X7" s="39">
+        <f>SUM(X8:X22)</f>
+        <v>44</v>
+      </c>
+      <c r="Y7" s="39">
+        <f>SUM(Y8:Y22)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="20">
-        <f>SUM(C10:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
+        <f>SUM(C10:C23)</f>
+        <v>50</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <f t="shared" ref="G10:Y12" si="0">F10</f>
+        <v>1</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="P11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q11" s="15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R11" s="15">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <f t="shared" ref="F12:U12" si="1">E12</f>
+        <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="O12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="P12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="Q12" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14" si="2">C14</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:U14" si="3">E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" ref="V14:Y14" si="4">U14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15">
-        <v>0</v>
+        <f t="shared" ref="D16:S18" si="5">C16</f>
+        <v>10</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="O16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="P16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="Q16" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="R16" s="15">
-        <v>0</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" ref="T16:Y18" si="6">S16</f>
+        <v>10</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="N17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="O17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="Q17" s="15">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:S22" si="7">C20</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20:Y22" si="8">S20</f>
+        <v>5</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="15">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K22" s="15">
+        <v>4</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R22" s="15">
+        <v>3</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7673,9 +9189,10 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7685,119 +9202,147 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C1" s="23">
-        <f>D7/15</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="23">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C1" s="21">
+        <f>D7/22</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="D1" s="21">
         <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="23">
+        <v>50</v>
+      </c>
+      <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="23">
+        <v>47.727272727272727</v>
+      </c>
+      <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="23">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="23">
+        <v>43.18181818181818</v>
+      </c>
+      <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="23">
+        <v>40.909090909090907</v>
+      </c>
+      <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="23">
+        <v>38.636363636363633</v>
+      </c>
+      <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="23">
+        <v>36.36363636363636</v>
+      </c>
+      <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="L1" s="23">
+        <v>34.090909090909086</v>
+      </c>
+      <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="M1" s="23">
+        <v>31.818181818181813</v>
+      </c>
+      <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="23">
+        <v>29.54545454545454</v>
+      </c>
+      <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="23">
+        <v>27.272727272727266</v>
+      </c>
+      <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="23">
+        <v>24.999999999999993</v>
+      </c>
+      <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="23">
+        <v>22.72727272727272</v>
+      </c>
+      <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>0</v>
-      </c>
-      <c r="R1" s="23">
+        <v>20.454545454545446</v>
+      </c>
+      <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>18.181818181818173</v>
+      </c>
+      <c r="S1" s="21">
+        <f>R1-C1</f>
+        <v>15.909090909090899</v>
+      </c>
+      <c r="T1" s="21">
+        <f>S1-C1</f>
+        <v>13.636363636363626</v>
+      </c>
+      <c r="U1" s="21">
+        <f>T1-C1</f>
+        <v>11.363636363636353</v>
+      </c>
+      <c r="V1" s="21">
+        <f>U1-C1</f>
+        <v>9.0909090909090793</v>
+      </c>
+      <c r="W1" s="21">
+        <f>V1-C1</f>
+        <v>6.8181818181818059</v>
+      </c>
+      <c r="X1" s="21">
+        <f>W1-C1</f>
+        <v>4.5454545454545325</v>
+      </c>
+      <c r="Y1" s="21">
+        <f>X1-C1</f>
+        <v>2.2727272727272596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7817,61 +9362,61 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-    </row>
-    <row r="4" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -7881,698 +9426,1389 @@
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="43">
+        <v>40912</v>
+      </c>
+      <c r="E6" s="43">
+        <v>40913</v>
+      </c>
+      <c r="F6" s="43">
+        <v>40914</v>
+      </c>
+      <c r="G6" s="43">
+        <v>40915</v>
+      </c>
+      <c r="H6" s="43">
+        <v>40916</v>
+      </c>
+      <c r="I6" s="43">
+        <v>40917</v>
+      </c>
+      <c r="J6" s="43">
+        <v>40918</v>
+      </c>
+      <c r="K6" s="43">
+        <v>40919</v>
+      </c>
+      <c r="L6" s="43">
+        <v>40920</v>
+      </c>
+      <c r="M6" s="43">
+        <v>40921</v>
+      </c>
+      <c r="N6" s="43">
+        <v>40922</v>
+      </c>
+      <c r="O6" s="43">
+        <v>40923</v>
+      </c>
+      <c r="P6" s="43">
+        <v>40924</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>40925</v>
+      </c>
+      <c r="R6" s="43">
+        <v>40926</v>
+      </c>
+      <c r="S6" s="43">
+        <v>40927</v>
+      </c>
+      <c r="T6" s="43">
+        <v>40928</v>
+      </c>
+      <c r="U6" s="43">
+        <v>40929</v>
+      </c>
+      <c r="V6" s="43">
+        <v>40930</v>
+      </c>
+      <c r="W6" s="43">
+        <v>40931</v>
+      </c>
+      <c r="X6" s="43">
+        <v>40932</v>
+      </c>
+      <c r="Y6" s="43">
+        <v>40933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7:R7" si="0">SUM(D8:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="39">
+        <f>SUM(D8:D21)</f>
+        <v>50</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
+        <v>53</v>
+      </c>
+      <c r="F7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
+        <v>49</v>
+      </c>
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
+        <v>49</v>
+      </c>
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="41">
+        <v>49</v>
+      </c>
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="41">
+        <v>49</v>
+      </c>
+      <c r="J7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="41">
+        <v>49</v>
+      </c>
+      <c r="K7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="41">
+        <v>48</v>
+      </c>
+      <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="41">
+        <v>48</v>
+      </c>
+      <c r="M7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="41">
+        <v>48</v>
+      </c>
+      <c r="N7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="41">
+        <v>48</v>
+      </c>
+      <c r="O7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="41">
+        <v>48</v>
+      </c>
+      <c r="P7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="41">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="41">
+        <v>48</v>
+      </c>
+      <c r="R7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="41">
+        <v>47</v>
+      </c>
+      <c r="S7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="U7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="W7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="X7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Y7" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="20">
-        <f>SUM(C10:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
+        <f>SUM(C10:C22)</f>
+        <v>50</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <f t="shared" ref="G10:Y12" si="1">F10</f>
+        <v>1</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R10" s="15">
-        <v>0</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q11" s="15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R11" s="15">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <f t="shared" ref="F12:U14" si="2">E12</f>
+        <v>3</v>
       </c>
       <c r="G12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="O12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="P12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Q12" s="15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="R12" s="15">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14" si="3">C14</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:U16" si="4">E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" ref="V14:Y16" si="5">U14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15">
-        <v>0</v>
+        <f t="shared" ref="D16:S18" si="6">C16</f>
+        <v>10</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="O16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="P16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="Q16" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="R16" s="15">
-        <v>0</v>
-      </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" ref="T16:Y18" si="7">S16</f>
+        <v>10</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="N17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="O17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="P17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="Q17" s="15">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:S21" si="8">C20</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20:Y21" si="9">S20</f>
+        <v>5</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>4</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="R21" s="15">
+        <v>3</v>
+      </c>
+      <c r="S21" s="15">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8585,6 +10821,7 @@
   <pageSetup paperSize="9" scale="63" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="73">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -357,7 +357,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-413]d/mmm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-413]d/mmm;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -751,7 +751,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="60"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,6 +765,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="60"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -785,9 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="21" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="60"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1238,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45354496"/>
-        <c:axId val="65511424"/>
+        <c:axId val="128213504"/>
+        <c:axId val="44501824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45354496"/>
+        <c:axId val="128213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65511424"/>
+        <c:crossAx val="44501824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1288,7 +1288,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65511424"/>
+        <c:axId val="44501824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,7 +1373,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45354496"/>
+        <c:crossAx val="128213504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,70 +1593,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,70 +1759,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.727272727272727</c:v>
+                  <c:v>35.31818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.454545454545453</c:v>
+                  <c:v>33.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.18181818181818</c:v>
+                  <c:v>31.954545454545457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.909090909090907</c:v>
+                  <c:v>30.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.636363636363633</c:v>
+                  <c:v>28.59090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.36363636363636</c:v>
+                  <c:v>26.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.090909090909086</c:v>
+                  <c:v>25.227272727272723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.818181818181813</c:v>
+                  <c:v>23.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.54545454545454</c:v>
+                  <c:v>21.863636363636356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.272727272727266</c:v>
+                  <c:v>20.181818181818173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.999999999999993</c:v>
+                  <c:v>18.499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.72727272727272</c:v>
+                  <c:v>16.818181818181806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.454545454545446</c:v>
+                  <c:v>15.136363636363624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.181818181818173</c:v>
+                  <c:v>13.454545454545443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.909090909090899</c:v>
+                  <c:v>11.772727272727261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.636363636363626</c:v>
+                  <c:v>10.090909090909079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.363636363636353</c:v>
+                  <c:v>8.4090909090908976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0909090909090793</c:v>
+                  <c:v>6.727272727272716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8181818181818059</c:v>
+                  <c:v>5.0454545454545343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5454545454545325</c:v>
+                  <c:v>3.3636363636363527</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2727272727272596</c:v>
+                  <c:v>1.6818181818181708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45191680"/>
-        <c:axId val="65513152"/>
+        <c:axId val="99804672"/>
+        <c:axId val="44500096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45191680"/>
+        <c:axId val="99804672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65513152"/>
+        <c:crossAx val="44500096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1887,7 +1887,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65513152"/>
+        <c:axId val="44500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1972,7 +1972,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45191680"/>
+        <c:crossAx val="99804672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,7 +2171,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53</c:v>
@@ -2241,49 +2241,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.727272727272727</c:v>
+                  <c:v>44.863636363636367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.454545454545453</c:v>
+                  <c:v>42.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.18181818181818</c:v>
+                  <c:v>40.590909090909101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.909090909090907</c:v>
+                  <c:v>38.454545454545467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.636363636363633</c:v>
+                  <c:v>36.318181818181834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.36363636363636</c:v>
+                  <c:v>34.181818181818201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.090909090909086</c:v>
+                  <c:v>32.045454545454568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.818181818181813</c:v>
+                  <c:v>29.909090909090931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.54545454545454</c:v>
+                  <c:v>27.772727272727295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.272727272727266</c:v>
+                  <c:v>25.636363636363658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.999999999999993</c:v>
+                  <c:v>23.500000000000021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.72727272727272</c:v>
+                  <c:v>21.363636363636385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.454545454545446</c:v>
+                  <c:v>19.227272727272748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.181818181818173</c:v>
+                  <c:v>17.090909090909111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,11 +2300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45192192"/>
-        <c:axId val="65514880"/>
+        <c:axId val="128215040"/>
+        <c:axId val="44503552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45192192"/>
+        <c:axId val="128215040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2339,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65514880"/>
+        <c:crossAx val="44503552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2348,7 +2348,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65514880"/>
+        <c:axId val="44503552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2433,7 +2433,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45192192"/>
+        <c:crossAx val="128215040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2899,11 +2899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68416512"/>
-        <c:axId val="91863232"/>
+        <c:axId val="147531264"/>
+        <c:axId val="147603456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68416512"/>
+        <c:axId val="147531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +2938,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91863232"/>
+        <c:crossAx val="147603456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2949,7 +2949,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91863232"/>
+        <c:axId val="147603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3034,7 +3034,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68416512"/>
+        <c:crossAx val="147531264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3612,20 +3612,20 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="A3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
       <c r="N3" t="s">
         <v>0</v>
       </c>
@@ -5759,114 +5759,114 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="53"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="53"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="53"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="53"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="53"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="53"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="53"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="53"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="53"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="53"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="53"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="53"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="53"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="53"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="53"/>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="53"/>
+      <c r="D25" s="54"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="53"/>
+      <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="53"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="53"/>
+      <c r="D28" s="54"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="53"/>
+      <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="53"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="53"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="53"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="53"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="53"/>
+      <c r="D34" s="54"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="54"/>
+      <c r="D35" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5890,8 +5890,8 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6000,27 +6000,27 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="A2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
@@ -6055,23 +6055,23 @@
       <c r="A4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="14"/>
       <c r="T4" s="42"/>
       <c r="U4" s="42"/>
@@ -6079,23 +6079,23 @@
     </row>
     <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="14"/>
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
@@ -7554,8 +7554,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7569,119 +7569,119 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1" s="21">
         <f>D7/22</f>
-        <v>2.2727272727272729</v>
+        <v>1.6818181818181819</v>
       </c>
       <c r="D1" s="21">
         <f>D7</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>47.727272727272727</v>
+        <v>35.31818181818182</v>
       </c>
       <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>45.454545454545453</v>
+        <v>33.63636363636364</v>
       </c>
       <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>43.18181818181818</v>
+        <v>31.954545454545457</v>
       </c>
       <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>40.909090909090907</v>
+        <v>30.272727272727273</v>
       </c>
       <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>38.636363636363633</v>
+        <v>28.59090909090909</v>
       </c>
       <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>36.36363636363636</v>
+        <v>26.909090909090907</v>
       </c>
       <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>34.090909090909086</v>
+        <v>25.227272727272723</v>
       </c>
       <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>31.818181818181813</v>
+        <v>23.54545454545454</v>
       </c>
       <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>29.54545454545454</v>
+        <v>21.863636363636356</v>
       </c>
       <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>27.272727272727266</v>
+        <v>20.181818181818173</v>
       </c>
       <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>24.999999999999993</v>
+        <v>18.499999999999989</v>
       </c>
       <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>22.72727272727272</v>
+        <v>16.818181818181806</v>
       </c>
       <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>20.454545454545446</v>
+        <v>15.136363636363624</v>
       </c>
       <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>18.181818181818173</v>
+        <v>13.454545454545443</v>
       </c>
       <c r="S1" s="21">
         <f>R1-C1</f>
-        <v>15.909090909090899</v>
+        <v>11.772727272727261</v>
       </c>
       <c r="T1" s="21">
         <f>S1-C1</f>
-        <v>13.636363636363626</v>
+        <v>10.090909090909079</v>
       </c>
       <c r="U1" s="21">
         <f>T1-C1</f>
-        <v>11.363636363636353</v>
+        <v>8.4090909090908976</v>
       </c>
       <c r="V1" s="21">
         <f>U1-C1</f>
-        <v>9.0909090909090793</v>
+        <v>6.727272727272716</v>
       </c>
       <c r="W1" s="21">
         <f>V1-C1</f>
-        <v>6.8181818181818059</v>
+        <v>5.0454545454545343</v>
       </c>
       <c r="X1" s="21">
         <f>W1-C1</f>
-        <v>4.5454545454545325</v>
+        <v>3.3636363636363527</v>
       </c>
       <c r="Y1" s="21">
         <f>X1-C1</f>
-        <v>2.2727272727272596</v>
+        <v>1.6818181818181708</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
@@ -7716,23 +7716,23 @@
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="14"/>
       <c r="T4" s="42"/>
       <c r="U4" s="42"/>
@@ -7740,23 +7740,23 @@
     </row>
     <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="14"/>
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
@@ -7772,70 +7772,70 @@
       <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="49">
         <v>41256</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="49">
         <v>41257</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="49">
         <v>41258</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <v>41259</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="49">
         <v>41260</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="49">
         <v>41261</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="49">
         <v>41262</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="49">
         <v>41263</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="49">
         <v>41264</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="49">
         <v>41265</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="49">
         <v>41266</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="49">
         <v>41267</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="49">
         <v>41268</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="49">
         <v>41269</v>
       </c>
-      <c r="R6" s="59">
+      <c r="R6" s="49">
         <v>41270</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="49">
         <v>41271</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="49">
         <v>41272</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="49">
         <v>41273</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="49">
         <v>41274</v>
       </c>
-      <c r="W6" s="59">
+      <c r="W6" s="49">
         <v>41275</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="49">
         <v>41276</v>
       </c>
-      <c r="Y6" s="59">
+      <c r="Y6" s="49">
         <v>41277</v>
       </c>
     </row>
@@ -7850,92 +7850,92 @@
         <v>16</v>
       </c>
       <c r="D7" s="39">
-        <f>SUM(D8:D22)</f>
-        <v>50</v>
+        <f t="shared" ref="D7:Y7" si="0">SUM(D8:D22)</f>
+        <v>37</v>
       </c>
       <c r="E7" s="39">
-        <f>SUM(E8:E22)</f>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="F7" s="39">
-        <f>SUM(F8:F22)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="G7" s="39">
-        <f>SUM(G8:G22)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="H7" s="39">
-        <f>SUM(H8:H22)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="I7" s="39">
-        <f>SUM(I8:I22)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="J7" s="39">
-        <f>SUM(J8:J22)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="K7" s="39">
-        <f>SUM(K8:K22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="L7" s="39">
-        <f>SUM(L8:L22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="M7" s="39">
-        <f>SUM(M8:M22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="N7" s="39">
-        <f>SUM(N8:N22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="O7" s="39">
-        <f>SUM(O8:O22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="P7" s="39">
-        <f>SUM(P8:P22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="Q7" s="39">
-        <f>SUM(Q8:Q22)</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="R7" s="39">
-        <f>SUM(R8:R22)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="S7" s="39">
-        <f>SUM(S8:S22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="T7" s="39">
-        <f>SUM(T8:T22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="U7" s="39">
-        <f>SUM(U8:U22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="V7" s="39">
-        <f>SUM(V8:V22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="W7" s="39">
-        <f>SUM(W8:W22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="X7" s="39">
-        <f>SUM(X8:X22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="Y7" s="39">
-        <f>SUM(Y8:Y22)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="20">
         <f>SUM(C10:C23)</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>0</v>
@@ -8048,9 +8048,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="15">
         <v>1</v>
       </c>
@@ -8061,88 +8059,86 @@
         <v>1</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" ref="G10:Y12" si="0">F10</f>
+        <f t="shared" ref="G10:Y12" si="1">F10</f>
         <v>1</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="15">
         <v>1</v>
       </c>
@@ -8153,88 +8149,86 @@
         <v>1</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="15">
         <v>1</v>
       </c>
@@ -8242,83 +8236,83 @@
         <v>3</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:U12" si="1">E12</f>
+        <f t="shared" ref="F12:U12" si="2">E12</f>
         <v>3</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="W12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="X12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8398,94 +8392,92 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <f t="shared" ref="D14" si="2">C14</f>
-        <v>3</v>
+        <f t="shared" ref="D14" si="3">C14</f>
+        <v>0</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:U14" si="3">E14</f>
+        <f t="shared" ref="F14:U14" si="4">E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" ref="V14:Y14" si="4">U14</f>
+        <f t="shared" ref="V14:Y14" si="5">U14</f>
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8573,91 +8565,91 @@
         <v>10</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" ref="D16:S18" si="5">C16</f>
+        <f t="shared" ref="D16:S18" si="6">C16</f>
         <v>10</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" ref="T16:Y18" si="6">S16</f>
+        <f t="shared" ref="T16:Y18" si="7">S16</f>
         <v>10</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -8672,91 +8664,91 @@
         <v>19</v>
       </c>
       <c r="D17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="N17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="P17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="Q17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="R17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S17" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="T17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="U17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="V17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="W17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="X17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="Y17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
@@ -8771,91 +8763,91 @@
         <v>5</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Y18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -8939,96 +8931,94 @@
         <v>72</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <f t="shared" ref="D20:S22" si="7">C20</f>
-        <v>5</v>
+        <f t="shared" ref="D20:S22" si="8">C20</f>
+        <v>0</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20:Y22" si="8">S20</f>
-        <v>5</v>
+        <f t="shared" ref="T20:Y22" si="9">S20</f>
+        <v>0</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -9065,62 +9055,60 @@
         <v>70</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="15">
-        <v>5</v>
-      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
         <v>4</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R22" s="15">
@@ -9130,27 +9118,27 @@
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9208,8 +9196,8 @@
   </sheetPr>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9223,119 +9211,119 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1" s="21">
         <f>D7/22</f>
-        <v>2.2727272727272729</v>
+        <v>2.1363636363636362</v>
       </c>
       <c r="D1" s="21">
         <f>D7</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>47.727272727272727</v>
+        <v>44.863636363636367</v>
       </c>
       <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>45.454545454545453</v>
+        <v>42.727272727272734</v>
       </c>
       <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>43.18181818181818</v>
+        <v>40.590909090909101</v>
       </c>
       <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>40.909090909090907</v>
+        <v>38.454545454545467</v>
       </c>
       <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>38.636363636363633</v>
+        <v>36.318181818181834</v>
       </c>
       <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>36.36363636363636</v>
+        <v>34.181818181818201</v>
       </c>
       <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>34.090909090909086</v>
+        <v>32.045454545454568</v>
       </c>
       <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>31.818181818181813</v>
+        <v>29.909090909090931</v>
       </c>
       <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>29.54545454545454</v>
+        <v>27.772727272727295</v>
       </c>
       <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>27.272727272727266</v>
+        <v>25.636363636363658</v>
       </c>
       <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>24.999999999999993</v>
+        <v>23.500000000000021</v>
       </c>
       <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>22.72727272727272</v>
+        <v>21.363636363636385</v>
       </c>
       <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>20.454545454545446</v>
+        <v>19.227272727272748</v>
       </c>
       <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>18.181818181818173</v>
+        <v>17.090909090909111</v>
       </c>
       <c r="S1" s="21">
         <f>R1-C1</f>
-        <v>15.909090909090899</v>
+        <v>14.954545454545475</v>
       </c>
       <c r="T1" s="21">
         <f>S1-C1</f>
-        <v>13.636363636363626</v>
+        <v>12.818181818181838</v>
       </c>
       <c r="U1" s="21">
         <f>T1-C1</f>
-        <v>11.363636363636353</v>
+        <v>10.681818181818201</v>
       </c>
       <c r="V1" s="21">
         <f>U1-C1</f>
-        <v>9.0909090909090793</v>
+        <v>8.5454545454545645</v>
       </c>
       <c r="W1" s="21">
         <f>V1-C1</f>
-        <v>6.8181818181818059</v>
+        <v>6.4090909090909278</v>
       </c>
       <c r="X1" s="21">
         <f>W1-C1</f>
-        <v>4.5454545454545325</v>
+        <v>4.2727272727272911</v>
       </c>
       <c r="Y1" s="21">
         <f>X1-C1</f>
-        <v>2.2727272727272596</v>
+        <v>2.1363636363636549</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="A2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
@@ -9370,23 +9358,23 @@
       <c r="A4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
       <c r="S4" s="14"/>
       <c r="T4" s="42"/>
       <c r="U4" s="42"/>
@@ -9394,23 +9382,23 @@
     </row>
     <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="14"/>
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
@@ -9505,7 +9493,7 @@
       </c>
       <c r="D7" s="39">
         <f>SUM(D8:D21)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="39">
         <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
@@ -9599,7 +9587,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="20">
         <f>SUM(C10:C22)</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>0</v>
@@ -9702,9 +9690,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="15">
         <v>1</v>
       </c>
@@ -9794,9 +9780,7 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="15">
         <v>1</v>
       </c>
@@ -9886,9 +9870,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="15">
         <v>1</v>
       </c>
@@ -9896,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:U14" si="2">E12</f>
+        <f t="shared" ref="F12:U12" si="2">E12</f>
         <v>3</v>
       </c>
       <c r="G12" s="15">
@@ -9981,9 +9963,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
@@ -10052,22 +10032,18 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="15">
         <f t="shared" ref="D14" si="3">C14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:U16" si="4">E14</f>
+        <f t="shared" ref="F14:U14" si="4">E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="15">
@@ -10131,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" ref="V14:Y16" si="5">U14</f>
+        <f t="shared" ref="V14:Y14" si="5">U14</f>
         <v>0</v>
       </c>
       <c r="W14" s="15">

--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -1238,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128213504"/>
-        <c:axId val="44501824"/>
+        <c:axId val="108220928"/>
+        <c:axId val="43780928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128213504"/>
+        <c:axId val="108220928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44501824"/>
+        <c:crossAx val="43780928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1288,7 +1288,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44501824"/>
+        <c:axId val="43780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,7 +1373,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128213504"/>
+        <c:crossAx val="108220928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,67 +1596,67 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99804672"/>
-        <c:axId val="44500096"/>
+        <c:axId val="100853248"/>
+        <c:axId val="43779200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99804672"/>
+        <c:axId val="100853248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44500096"/>
+        <c:crossAx val="43779200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1887,7 +1887,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44500096"/>
+        <c:axId val="43779200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1972,7 +1972,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99804672"/>
+        <c:crossAx val="100853248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,49 +2171,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,49 +2241,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.863636363636367</c:v>
+                  <c:v>35.31818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.727272727272734</c:v>
+                  <c:v>33.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.590909090909101</c:v>
+                  <c:v>31.954545454545457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.454545454545467</c:v>
+                  <c:v>30.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.318181818181834</c:v>
+                  <c:v>28.59090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.181818181818201</c:v>
+                  <c:v>26.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.045454545454568</c:v>
+                  <c:v>25.227272727272723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.909090909090931</c:v>
+                  <c:v>23.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.772727272727295</c:v>
+                  <c:v>21.863636363636356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.636363636363658</c:v>
+                  <c:v>20.181818181818173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.500000000000021</c:v>
+                  <c:v>18.499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.363636363636385</c:v>
+                  <c:v>16.818181818181806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.227272727272748</c:v>
+                  <c:v>15.136363636363624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.090909090909111</c:v>
+                  <c:v>13.454545454545443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,11 +2300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128215040"/>
-        <c:axId val="44503552"/>
+        <c:axId val="108222464"/>
+        <c:axId val="43782656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128215040"/>
+        <c:axId val="108222464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2339,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44503552"/>
+        <c:crossAx val="43782656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2348,7 +2348,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44503552"/>
+        <c:axId val="43782656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2433,7 +2433,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128215040"/>
+        <c:crossAx val="108222464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5890,7 +5890,7 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -7555,7 +7555,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7855,87 +7855,87 @@
       </c>
       <c r="E7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R7" s="39">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -8053,29 +8053,25 @@
         <v>1</v>
       </c>
       <c r="E10" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" ref="G10:Y12" si="1">F10</f>
         <v>1</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10:Y12" si="1">J10</f>
         <v>1</v>
       </c>
       <c r="L10" s="15">
@@ -8143,25 +8139,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K11" s="15">
@@ -8233,87 +8225,82 @@
         <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:U12" si="2">E12</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="F12:U12" si="2">J12</f>
+        <v>1</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -8945,79 +8932,79 @@
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G20:G22" si="9">F20</f>
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H20:H22" si="10">G20</f>
         <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I20:I22" si="11">H20</f>
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J20:J22" si="12">I20</f>
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K20:K22" si="13">J20</f>
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L20:L22" si="14">K20</f>
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M20:M22" si="15">L20</f>
         <v>0</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N20:N22" si="16">M20</f>
         <v>0</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O20:O22" si="17">N20</f>
         <v>0</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P20:P22" si="18">O20</f>
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Q20:Q22" si="19">P20</f>
         <v>0</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="R20:R22" si="20">Q20</f>
         <v>0</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S20:S22" si="21">R20</f>
         <v>0</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20:Y22" si="9">S20</f>
+        <f t="shared" ref="T20:Y22" si="22">S20</f>
         <v>0</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -9027,28 +9014,94 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="D21" s="15">
+        <f t="shared" ref="D21" si="23">C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" ref="E21" si="24">D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" ref="F21" si="25">E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" ref="T21" si="26">S21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" ref="U21" si="27">T21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" ref="V21" si="28">U21</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" ref="W21" si="29">V21</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" ref="X21" si="30">W21</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" ref="Y21" si="31">X21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -9069,76 +9122,79 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="R22" s="15">
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S22" s="15">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -9196,8 +9252,8 @@
   </sheetPr>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9211,95 +9267,95 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1" s="21">
         <f>D7/22</f>
-        <v>2.1363636363636362</v>
+        <v>1.6818181818181819</v>
       </c>
       <c r="D1" s="21">
         <f>D7</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>44.863636363636367</v>
+        <v>35.31818181818182</v>
       </c>
       <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>42.727272727272734</v>
+        <v>33.63636363636364</v>
       </c>
       <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>40.590909090909101</v>
+        <v>31.954545454545457</v>
       </c>
       <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>38.454545454545467</v>
+        <v>30.272727272727273</v>
       </c>
       <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>36.318181818181834</v>
+        <v>28.59090909090909</v>
       </c>
       <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>34.181818181818201</v>
+        <v>26.909090909090907</v>
       </c>
       <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>32.045454545454568</v>
+        <v>25.227272727272723</v>
       </c>
       <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>29.909090909090931</v>
+        <v>23.54545454545454</v>
       </c>
       <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>27.772727272727295</v>
+        <v>21.863636363636356</v>
       </c>
       <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>25.636363636363658</v>
+        <v>20.181818181818173</v>
       </c>
       <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>23.500000000000021</v>
+        <v>18.499999999999989</v>
       </c>
       <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>21.363636363636385</v>
+        <v>16.818181818181806</v>
       </c>
       <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>19.227272727272748</v>
+        <v>15.136363636363624</v>
       </c>
       <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>17.090909090909111</v>
+        <v>13.454545454545443</v>
       </c>
       <c r="S1" s="21">
         <f>R1-C1</f>
-        <v>14.954545454545475</v>
+        <v>11.772727272727261</v>
       </c>
       <c r="T1" s="21">
         <f>S1-C1</f>
-        <v>12.818181818181838</v>
+        <v>10.090909090909079</v>
       </c>
       <c r="U1" s="21">
         <f>T1-C1</f>
-        <v>10.681818181818201</v>
+        <v>8.4090909090908976</v>
       </c>
       <c r="V1" s="21">
         <f>U1-C1</f>
-        <v>8.5454545454545645</v>
+        <v>6.727272727272716</v>
       </c>
       <c r="W1" s="21">
         <f>V1-C1</f>
-        <v>6.4090909090909278</v>
+        <v>5.0454545454545343</v>
       </c>
       <c r="X1" s="21">
         <f>W1-C1</f>
-        <v>4.2727272727272911</v>
+        <v>3.3636363636363527</v>
       </c>
       <c r="Y1" s="21">
         <f>X1-C1</f>
-        <v>2.1363636363636549</v>
+        <v>1.6818181818181708</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -9493,91 +9549,91 @@
       </c>
       <c r="D7" s="39">
         <f>SUM(D8:D21)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7" s="39">
         <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="R7" s="39">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="U7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="W7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="X7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -9587,7 +9643,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="20">
         <f>SUM(C10:C22)</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>0</v>
@@ -9695,73 +9751,58 @@
         <v>1</v>
       </c>
       <c r="E10" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" ref="G10:Y12" si="1">F10</f>
         <v>1</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10:Y12" si="1">U10</f>
         <v>1</v>
       </c>
       <c r="W10" s="15">
@@ -9785,69 +9826,54 @@
         <v>1</v>
       </c>
       <c r="E11" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V11" s="15">
@@ -9875,87 +9901,71 @@
         <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:U12" si="2">E12</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -10036,90 +10046,90 @@
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <f t="shared" ref="D14" si="3">C14</f>
+        <f t="shared" ref="D14" si="2">C14</f>
         <v>0</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:U14" si="4">E14</f>
+        <f t="shared" ref="F14:U14" si="3">E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" ref="V14:Y14" si="4">U14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="X14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Y14" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14:Y14" si="5">U14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10207,91 +10217,91 @@
         <v>10</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" ref="D16:S18" si="6">C16</f>
+        <f t="shared" ref="D16:S18" si="5">C16</f>
         <v>10</v>
       </c>
       <c r="E16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" ref="T16:Y18" si="6">S16</f>
+        <v>10</v>
+      </c>
+      <c r="U16" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="F16" s="15">
+      <c r="V16" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G16" s="15">
+      <c r="W16" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="H16" s="15">
+      <c r="X16" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Y16" s="15">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="S16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="T16" s="15">
-        <f t="shared" ref="T16:Y18" si="7">S16</f>
-        <v>10</v>
-      </c>
-      <c r="U16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="V16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="X16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Y16" s="15">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -10306,91 +10316,91 @@
         <v>19</v>
       </c>
       <c r="D17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="T17" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="E17" s="15">
+      <c r="U17" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="F17" s="15">
+      <c r="V17" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="G17" s="15">
+      <c r="W17" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="H17" s="15">
+      <c r="X17" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Y17" s="15">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="S17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="T17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="V17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="W17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="X17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="Y17" s="15">
-        <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
@@ -10405,91 +10415,91 @@
         <v>5</v>
       </c>
       <c r="D18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E18" s="15">
+      <c r="U18" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="V18" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G18" s="15">
+      <c r="W18" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H18" s="15">
+      <c r="X18" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I18" s="15">
+      <c r="Y18" s="15">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="X18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Y18" s="15">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -10573,96 +10583,94 @@
         <v>64</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <f t="shared" ref="D20:S21" si="8">C20</f>
-        <v>5</v>
+        <f t="shared" ref="D20:S21" si="7">C20</f>
+        <v>0</v>
       </c>
       <c r="E20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20:Y21" si="8">S20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" ref="T20:Y21" si="9">S20</f>
-        <v>5</v>
-      </c>
-      <c r="U20" s="15">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="V20" s="15">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="X20" s="15">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="Y20" s="15">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -10670,92 +10678,93 @@
         <v>67</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="15">
-        <v>5</v>
-      </c>
+      <c r="C21" s="15"/>
       <c r="D21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" ref="K21" si="9">J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" ref="L21" si="10">K21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" ref="M21" si="11">L21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" ref="N21" si="12">M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" ref="O21" si="13">N21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" ref="P21" si="14">O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" ref="Q21" si="15">P21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" ref="R21" si="16">Q21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" ref="S21" si="17">R21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="K21" s="15">
-        <v>4</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="R21" s="15">
-        <v>3</v>
-      </c>
-      <c r="S21" s="15">
-        <v>0</v>
-      </c>
-      <c r="T21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>mogelijk maken om een uitnodiging naar alle voogden te sturen</t>
+  </si>
+  <si>
+    <t>download het PDF bestand</t>
+  </si>
+  <si>
+    <t>genereer een PDF bestand</t>
+  </si>
+  <si>
+    <t>genereer een PDF bestand gebaseerd op HTML</t>
   </si>
 </sst>
 </file>
@@ -1238,11 +1247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108220928"/>
-        <c:axId val="43780928"/>
+        <c:axId val="125981184"/>
+        <c:axId val="126225216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108220928"/>
+        <c:axId val="125981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1286,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43780928"/>
+        <c:crossAx val="126225216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1288,7 +1297,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43780928"/>
+        <c:axId val="126225216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,7 +1382,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108220928"/>
+        <c:crossAx val="125981184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,11 +1848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100853248"/>
-        <c:axId val="43779200"/>
+        <c:axId val="99284480"/>
+        <c:axId val="126223488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100853248"/>
+        <c:axId val="99284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1887,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43779200"/>
+        <c:crossAx val="126223488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1887,7 +1896,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43779200"/>
+        <c:axId val="126223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1972,7 +1981,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100853248"/>
+        <c:crossAx val="99284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,11 +2309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108222464"/>
-        <c:axId val="43782656"/>
+        <c:axId val="125982720"/>
+        <c:axId val="126226944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108222464"/>
+        <c:axId val="125982720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2348,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43782656"/>
+        <c:crossAx val="126226944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2348,7 +2357,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43782656"/>
+        <c:axId val="126226944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2433,7 +2442,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108222464"/>
+        <c:crossAx val="125982720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,150 +2582,150 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:f>'SPRINT 3 - BACKLOG'!$D$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-413]d/mmm;@</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>40868</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40869</c:v>
+                  <c:v>40913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40870</c:v>
+                  <c:v>40914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40871</c:v>
+                  <c:v>40915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40872</c:v>
+                  <c:v>40916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40873</c:v>
+                  <c:v>40917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40874</c:v>
+                  <c:v>40918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40875</c:v>
+                  <c:v>40919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40876</c:v>
+                  <c:v>40920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40877</c:v>
+                  <c:v>40921</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40878</c:v>
+                  <c:v>40922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40879</c:v>
+                  <c:v>40923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40880</c:v>
+                  <c:v>40924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40881</c:v>
+                  <c:v>40925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40882</c:v>
+                  <c:v>40926</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40883</c:v>
+                  <c:v>40927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40884</c:v>
+                  <c:v>40928</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40885</c:v>
+                  <c:v>40929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40886</c:v>
+                  <c:v>40930</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40887</c:v>
+                  <c:v>40931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40888</c:v>
+                  <c:v>40932</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40889</c:v>
+                  <c:v>40933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$7:$Y$7</c:f>
+              <c:f>'SPRINT 3 - BACKLOG'!$D$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,150 +2748,150 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$6:$Y$6</c:f>
+              <c:f>'SPRINT 3 - BACKLOG'!$D$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>[$-413]d/mmm;@</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>40868</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40869</c:v>
+                  <c:v>40913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40870</c:v>
+                  <c:v>40914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40871</c:v>
+                  <c:v>40915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40872</c:v>
+                  <c:v>40916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40873</c:v>
+                  <c:v>40917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40874</c:v>
+                  <c:v>40918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40875</c:v>
+                  <c:v>40919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40876</c:v>
+                  <c:v>40920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40877</c:v>
+                  <c:v>40921</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40878</c:v>
+                  <c:v>40922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40879</c:v>
+                  <c:v>40923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40880</c:v>
+                  <c:v>40924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40881</c:v>
+                  <c:v>40925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40882</c:v>
+                  <c:v>40926</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40883</c:v>
+                  <c:v>40927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40884</c:v>
+                  <c:v>40928</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40885</c:v>
+                  <c:v>40929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40886</c:v>
+                  <c:v>40930</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40887</c:v>
+                  <c:v>40931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40888</c:v>
+                  <c:v>40932</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40889</c:v>
+                  <c:v>40933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'SPRINT 1 - BACKLOG'!$D$1:$Y$1</c:f>
+              <c:f>'SPRINT 3 - BACKLOG'!$D$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.727272727272727</c:v>
+                  <c:v>35.31818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.454545454545453</c:v>
+                  <c:v>33.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.18181818181818</c:v>
+                  <c:v>31.954545454545457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.909090909090907</c:v>
+                  <c:v>30.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.636363636363633</c:v>
+                  <c:v>28.59090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.36363636363636</c:v>
+                  <c:v>26.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.090909090909086</c:v>
+                  <c:v>25.227272727272723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.818181818181813</c:v>
+                  <c:v>23.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.54545454545454</c:v>
+                  <c:v>21.863636363636356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.272727272727266</c:v>
+                  <c:v>20.181818181818173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.999999999999993</c:v>
+                  <c:v>18.499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.72727272727272</c:v>
+                  <c:v>16.818181818181806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.454545454545446</c:v>
+                  <c:v>15.136363636363624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.181818181818173</c:v>
+                  <c:v>13.454545454545443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.909090909090899</c:v>
+                  <c:v>11.772727272727261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.636363636363626</c:v>
+                  <c:v>10.090909090909079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.363636363636353</c:v>
+                  <c:v>8.4090909090908976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0909090909090793</c:v>
+                  <c:v>6.727272727272716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8181818181818059</c:v>
+                  <c:v>5.0454545454545343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5454545454545325</c:v>
+                  <c:v>3.3636363636363527</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2727272727272596</c:v>
+                  <c:v>1.6818181818181708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,11 +2908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147531264"/>
-        <c:axId val="147603456"/>
+        <c:axId val="146490880"/>
+        <c:axId val="76759040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147531264"/>
+        <c:axId val="146490880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +2947,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147603456"/>
+        <c:crossAx val="76759040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2949,7 +2958,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147603456"/>
+        <c:axId val="76759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3034,7 +3043,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147531264"/>
+        <c:crossAx val="146490880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3581,7 +3590,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5890,8 +5899,8 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7554,8 +7563,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:S22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8071,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" ref="G10:Y12" si="1">J10</f>
+        <f t="shared" ref="K10:Y12" si="1">J10</f>
         <v>1</v>
       </c>
       <c r="L10" s="15">
@@ -8243,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="F12:U12" si="2">J12</f>
+        <f t="shared" ref="K12:U12" si="2">J12</f>
         <v>1</v>
       </c>
       <c r="L12" s="15">
@@ -8920,7 +8929,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <f t="shared" ref="D20:S22" si="8">C20</f>
+        <f t="shared" ref="D20:F22" si="8">C20</f>
         <v>0</v>
       </c>
       <c r="E20" s="15">
@@ -9250,10 +9259,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9548,11 +9557,11 @@
         <v>16</v>
       </c>
       <c r="D7" s="39">
-        <f>SUM(D8:D21)</f>
+        <f>SUM(D8:D23)</f>
         <v>37</v>
       </c>
       <c r="E7" s="39">
-        <f t="shared" ref="E7:Y7" si="0">SUM(E8:E21)</f>
+        <f t="shared" ref="E7:Y7" si="0">SUM(E8:E23)</f>
         <v>37</v>
       </c>
       <c r="F7" s="39">
@@ -9642,7 +9651,7 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="20">
-        <f>SUM(C10:C22)</f>
+        <f>SUM(C10:C24)</f>
         <v>34</v>
       </c>
       <c r="D8" s="40" t="s">
@@ -9802,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" ref="G10:Y12" si="1">U10</f>
+        <f t="shared" ref="V10:Y12" si="1">U10</f>
         <v>1</v>
       </c>
       <c r="W10" s="15">
@@ -10042,7 +10051,9 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
@@ -10134,666 +10145,724 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="33" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="15">
         <v>10</v>
       </c>
-      <c r="D16" s="15">
-        <f t="shared" ref="D16:S18" si="5">C16</f>
+      <c r="D18" s="15">
+        <f t="shared" ref="D18:S20" si="5">C18</f>
         <v>10</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S18" s="15">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="T16" s="15">
-        <f t="shared" ref="T16:Y18" si="6">S16</f>
+      <c r="T18" s="15">
+        <f t="shared" ref="T18:Y20" si="6">S18</f>
         <v>10</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U18" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V18" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W18" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X18" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y18" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
         <v>19</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S19" s="15">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y19" s="15">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="X18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Y18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:S21" si="7">C20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <f t="shared" ref="D22:S23" si="7">C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T20" s="15">
-        <f t="shared" ref="T20:Y21" si="8">S20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
+      <c r="T22" s="15">
+        <f t="shared" ref="T22:Y23" si="8">S22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="Y22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K21" s="15">
-        <f t="shared" ref="K21" si="9">J21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" ref="L21" si="10">K21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" ref="M21" si="11">L21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" ref="N21" si="12">M21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" ref="O21" si="13">N21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" ref="P21" si="14">O21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" ref="Q21" si="15">P21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="15">
-        <f t="shared" ref="R21" si="16">Q21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="15">
-        <f t="shared" ref="S21" si="17">R21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="15">
+      <c r="K23" s="15">
+        <f t="shared" ref="K23" si="9">J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" ref="L23" si="10">K23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" ref="M23" si="11">L23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" ref="N23" si="12">M23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" ref="O23" si="13">N23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" ref="P23" si="14">O23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" ref="Q23" si="15">P23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" ref="R23" si="16">Q23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" ref="S23" si="17">R23</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/Product backlog.xlsx
+++ b/documents/Product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="81">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -358,6 +358,21 @@
   </si>
   <si>
     <t>genereer een PDF bestand gebaseerd op HTML</t>
+  </si>
+  <si>
+    <t>e-mail verzenden naar docenten</t>
+  </si>
+  <si>
+    <t>genereren van een passphrase</t>
+  </si>
+  <si>
+    <t>lay-out maken</t>
+  </si>
+  <si>
+    <t>handelingen achter het formulier</t>
+  </si>
+  <si>
+    <t>login systeem</t>
   </si>
 </sst>
 </file>
@@ -1019,52 +1034,52 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,11 +1262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125981184"/>
-        <c:axId val="126225216"/>
+        <c:axId val="146104832"/>
+        <c:axId val="144968512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125981184"/>
+        <c:axId val="146104832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1301,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126225216"/>
+        <c:crossAx val="144968512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1297,7 +1312,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126225216"/>
+        <c:axId val="144968512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1382,7 +1397,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125981184"/>
+        <c:crossAx val="146104832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,61 +1617,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37</c:v>
@@ -1665,7 +1680,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,70 +1783,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.31818181818182</c:v>
+                  <c:v>70.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.63636363636364</c:v>
+                  <c:v>67.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.954545454545457</c:v>
+                  <c:v>63.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.272727272727273</c:v>
+                  <c:v>60.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.59090909090909</c:v>
+                  <c:v>57.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.909090909090907</c:v>
+                  <c:v>53.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.227272727272723</c:v>
+                  <c:v>50.454545454545446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.54545454545454</c:v>
+                  <c:v>47.090909090909079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.863636363636356</c:v>
+                  <c:v>43.727272727272712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.181818181818173</c:v>
+                  <c:v>40.363636363636346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.499999999999989</c:v>
+                  <c:v>36.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.818181818181806</c:v>
+                  <c:v>33.636363636363612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.136363636363624</c:v>
+                  <c:v>30.272727272727249</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.454545454545443</c:v>
+                  <c:v>26.909090909090885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.772727272727261</c:v>
+                  <c:v>23.545454545454522</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.090909090909079</c:v>
+                  <c:v>20.181818181818159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4090909090908976</c:v>
+                  <c:v>16.818181818181795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.727272727272716</c:v>
+                  <c:v>13.454545454545432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0454545454545343</c:v>
+                  <c:v>10.090909090909069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3636363636363527</c:v>
+                  <c:v>6.7272727272727053</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6818181818181708</c:v>
+                  <c:v>3.3636363636363416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,11 +1863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99284480"/>
-        <c:axId val="126223488"/>
+        <c:axId val="122877440"/>
+        <c:axId val="144966784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99284480"/>
+        <c:axId val="122877440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1902,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126223488"/>
+        <c:crossAx val="144966784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1896,7 +1911,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126223488"/>
+        <c:axId val="144966784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1981,7 +1996,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99284480"/>
+        <c:crossAx val="122877440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,49 +2195,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,49 +2265,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.31818181818182</c:v>
+                  <c:v>57.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.63636363636364</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.954545454545457</c:v>
+                  <c:v>51.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.272727272727273</c:v>
+                  <c:v>49.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.59090909090909</c:v>
+                  <c:v>46.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.909090909090907</c:v>
+                  <c:v>43.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.227272727272723</c:v>
+                  <c:v>40.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.54545454545454</c:v>
+                  <c:v>38.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.863636363636356</c:v>
+                  <c:v>35.45454545454546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.181818181818173</c:v>
+                  <c:v>32.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.499999999999989</c:v>
+                  <c:v>30.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.818181818181806</c:v>
+                  <c:v>27.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.136363636363624</c:v>
+                  <c:v>24.545454545454554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.454545454545443</c:v>
+                  <c:v>21.818181818181827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,11 +2324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125982720"/>
-        <c:axId val="126226944"/>
+        <c:axId val="146106368"/>
+        <c:axId val="144970240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125982720"/>
+        <c:axId val="146106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2363,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126226944"/>
+        <c:crossAx val="144970240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2357,7 +2372,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126226944"/>
+        <c:axId val="144970240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2442,7 +2457,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125982720"/>
+        <c:crossAx val="146106368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2662,70 +2677,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,70 +2843,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.31818181818182</c:v>
+                  <c:v>57.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.63636363636364</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.954545454545457</c:v>
+                  <c:v>51.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.272727272727273</c:v>
+                  <c:v>49.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.59090909090909</c:v>
+                  <c:v>46.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.909090909090907</c:v>
+                  <c:v>43.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.227272727272723</c:v>
+                  <c:v>40.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.54545454545454</c:v>
+                  <c:v>38.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.863636363636356</c:v>
+                  <c:v>35.45454545454546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.181818181818173</c:v>
+                  <c:v>32.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.499999999999989</c:v>
+                  <c:v>30.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.818181818181806</c:v>
+                  <c:v>27.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.136363636363624</c:v>
+                  <c:v>24.545454545454554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.454545454545443</c:v>
+                  <c:v>21.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.772727272727261</c:v>
+                  <c:v>19.090909090909101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.090909090909079</c:v>
+                  <c:v>16.363636363636374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4090909090908976</c:v>
+                  <c:v>13.636363636363647</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.727272727272716</c:v>
+                  <c:v>10.909090909090921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0454545454545343</c:v>
+                  <c:v>8.1818181818181941</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3636363636363527</c:v>
+                  <c:v>5.4545454545454675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6818181818181708</c:v>
+                  <c:v>2.7272727272727404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,11 +2923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146490880"/>
-        <c:axId val="76759040"/>
+        <c:axId val="147539456"/>
+        <c:axId val="147603456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146490880"/>
+        <c:axId val="147539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2962,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76759040"/>
+        <c:crossAx val="147603456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2958,7 +2973,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76759040"/>
+        <c:axId val="147603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3043,7 +3058,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146490880"/>
+        <c:crossAx val="147539456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3589,8 +3604,8 @@
   </sheetPr>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5899,8 +5914,8 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6223,67 +6238,67 @@
       </c>
       <c r="J7" s="39">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="39">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R7" s="39">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y7" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -6435,56 +6450,54 @@
         <v>1</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -6533,52 +6546,51 @@
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -6612,68 +6624,66 @@
         <v>3</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="15">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -7561,10 +7571,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7578,95 +7588,95 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1" s="21">
         <f>D7/22</f>
-        <v>1.6818181818181819</v>
+        <v>3.3636363636363638</v>
       </c>
       <c r="D1" s="21">
         <f>D7</f>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E1" s="21">
         <f>D1-C1</f>
-        <v>35.31818181818182</v>
+        <v>70.63636363636364</v>
       </c>
       <c r="F1" s="21">
         <f>E1-C1</f>
-        <v>33.63636363636364</v>
+        <v>67.27272727272728</v>
       </c>
       <c r="G1" s="21">
         <f>F1-C1</f>
-        <v>31.954545454545457</v>
+        <v>63.909090909090914</v>
       </c>
       <c r="H1" s="21">
         <f>G1-C1</f>
-        <v>30.272727272727273</v>
+        <v>60.545454545454547</v>
       </c>
       <c r="I1" s="21">
         <f>H1-C1</f>
-        <v>28.59090909090909</v>
+        <v>57.18181818181818</v>
       </c>
       <c r="J1" s="21">
         <f>I1-C1</f>
-        <v>26.909090909090907</v>
+        <v>53.818181818181813</v>
       </c>
       <c r="K1" s="21">
         <f>J1-C1</f>
-        <v>25.227272727272723</v>
+        <v>50.454545454545446</v>
       </c>
       <c r="L1" s="21">
         <f>K1-C1</f>
-        <v>23.54545454545454</v>
+        <v>47.090909090909079</v>
       </c>
       <c r="M1" s="21">
         <f>L1-C1</f>
-        <v>21.863636363636356</v>
+        <v>43.727272727272712</v>
       </c>
       <c r="N1" s="21">
         <f>M1-C1</f>
-        <v>20.181818181818173</v>
+        <v>40.363636363636346</v>
       </c>
       <c r="O1" s="21">
         <f>N1-C1</f>
-        <v>18.499999999999989</v>
+        <v>36.999999999999979</v>
       </c>
       <c r="P1" s="21">
         <f>O1-C1</f>
-        <v>16.818181818181806</v>
+        <v>33.636363636363612</v>
       </c>
       <c r="Q1" s="21">
         <f>P1-C1</f>
-        <v>15.136363636363624</v>
+        <v>30.272727272727249</v>
       </c>
       <c r="R1" s="21">
         <f>Q1-C1</f>
-        <v>13.454545454545443</v>
+        <v>26.909090909090885</v>
       </c>
       <c r="S1" s="21">
         <f>R1-C1</f>
-        <v>11.772727272727261</v>
+        <v>23.545454545454522</v>
       </c>
       <c r="T1" s="21">
         <f>S1-C1</f>
-        <v>10.090909090909079</v>
+        <v>20.181818181818159</v>
       </c>
       <c r="U1" s="21">
         <f>T1-C1</f>
-        <v>8.4090909090908976</v>
+        <v>16.818181818181795</v>
       </c>
       <c r="V1" s="21">
         <f>U1-C1</f>
-        <v>6.727272727272716</v>
+        <v>13.454545454545432</v>
       </c>
       <c r="W1" s="21">
         <f>V1-C1</f>
-        <v>5.0454545454545343</v>
+        <v>10.090909090909069</v>
       </c>
       <c r="X1" s="21">
         <f>W1-C1</f>
-        <v>3.3636363636363527</v>
+        <v>6.7272727272727053</v>
       </c>
       <c r="Y1" s="21">
         <f>X1-C1</f>
-        <v>1.6818181818181708</v>
+        <v>3.3636363636363416</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -7859,92 +7869,92 @@
         <v>16</v>
       </c>
       <c r="D7" s="39">
-        <f t="shared" ref="D7:Y7" si="0">SUM(D8:D22)</f>
+        <f>SUM(D8:D21)</f>
+        <v>74</v>
+      </c>
+      <c r="E7" s="39">
+        <f>SUM(E8:E21)</f>
+        <v>74</v>
+      </c>
+      <c r="F7" s="39">
+        <f>SUM(F8:F21)</f>
+        <v>74</v>
+      </c>
+      <c r="G7" s="39">
+        <f>SUM(G8:G21)</f>
+        <v>74</v>
+      </c>
+      <c r="H7" s="39">
+        <f>SUM(H8:H21)</f>
+        <v>72</v>
+      </c>
+      <c r="I7" s="39">
+        <f>SUM(I8:I21)</f>
+        <v>69</v>
+      </c>
+      <c r="J7" s="39">
+        <f>SUM(J8:J21)</f>
+        <v>67</v>
+      </c>
+      <c r="K7" s="39">
+        <f>SUM(K8:K21)</f>
+        <v>61</v>
+      </c>
+      <c r="L7" s="39">
+        <f>SUM(L8:L21)</f>
+        <v>61</v>
+      </c>
+      <c r="M7" s="39">
+        <f>SUM(M8:M21)</f>
+        <v>61</v>
+      </c>
+      <c r="N7" s="39">
+        <f>SUM(N8:N21)</f>
+        <v>61</v>
+      </c>
+      <c r="O7" s="39">
+        <f>SUM(O8:O21)</f>
+        <v>61</v>
+      </c>
+      <c r="P7" s="39">
+        <f>SUM(P8:P21)</f>
+        <v>60</v>
+      </c>
+      <c r="Q7" s="39">
+        <f>SUM(Q8:Q21)</f>
+        <v>51</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(R8:R21)</f>
+        <v>49</v>
+      </c>
+      <c r="S7" s="39">
+        <f>SUM(S8:S21)</f>
+        <v>46</v>
+      </c>
+      <c r="T7" s="39">
+        <f>SUM(T8:T21)</f>
+        <v>42</v>
+      </c>
+      <c r="U7" s="39">
+        <f>SUM(U8:U21)</f>
+        <v>40</v>
+      </c>
+      <c r="V7" s="39">
+        <f>SUM(V8:V21)</f>
+        <v>39</v>
+      </c>
+      <c r="W7" s="39">
+        <f>SUM(W8:W21)</f>
         <v>37</v>
       </c>
-      <c r="E7" s="39">
-        <f t="shared" si="0"/>
+      <c r="X7" s="39">
+        <f>SUM(X8:X21)</f>
         <v>37</v>
       </c>
-      <c r="F7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="H7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="I7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="J7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="L7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="N7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="O7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="P7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="Q7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="S7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="U7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="V7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="W7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="X7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
       <c r="Y7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>SUM(Y8:Y21)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -7953,8 +7963,8 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="20">
-        <f>SUM(C10:C23)</f>
-        <v>34</v>
+        <f>SUM(C10:C24)</f>
+        <v>79</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>0</v>
@@ -8055,1155 +8065,2977 @@
       <c r="Y9" s="40"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
       <c r="D10" s="15">
-        <v>1</v>
+        <f t="shared" ref="D10:H13" si="0">C10</f>
+        <v>3</v>
       </c>
       <c r="E10" s="15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F10" s="15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G10" s="15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
       </c>
       <c r="I10" s="15">
+        <f t="shared" ref="I10:X13" si="1">H10</f>
         <v>1</v>
       </c>
       <c r="J10" s="15">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" ref="K10:Y12" si="1">J10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="15">
+        <f t="shared" ref="Y10:Y13" si="2">X10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="15">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J12" s="15">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="K12:U12" si="2">J12</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L12" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>6</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" ref="S12" si="3">R12</f>
+        <v>6</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" ref="T12" si="4">S12</f>
+        <v>6</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" ref="U12" si="5">T12</f>
+        <v>6</v>
+      </c>
+      <c r="V12" s="15">
+        <v>5</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" ref="W12" si="6">V12</f>
+        <v>5</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" ref="X12" si="7">W12</f>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="15">
+        <v>8</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>6</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" ref="U13" si="8">T13</f>
+        <v>6</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" ref="V13" si="9">U13</f>
+        <v>6</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" ref="W13" si="10">V13</f>
+        <v>6</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" ref="X13" si="11">W13</f>
+        <v>6</v>
+      </c>
+      <c r="Y13" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
-        <f t="shared" ref="D14" si="3">C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14:U14" si="4">E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14:Y14" si="5">U14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" si="5"/>
+      <c r="A14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="33" t="s">
-        <v>0</v>
+      <c r="A15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:S17" si="12">C15</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="K15" s="15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>10</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="T15" s="15">
+        <v>6</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" ref="T15:Y17" si="13">T15</f>
+        <v>6</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C16" s="15">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" ref="D16:S18" si="6">C16</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="N16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" ref="T16:Y18" si="7">S16</f>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="15">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>3</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ref="D19:F21" si="14">C19</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" ref="G19:G21" si="15">F19</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" ref="H19:H21" si="16">G19</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" ref="I19" si="17">H19</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" ref="J19:J21" si="18">I19</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" ref="K19:K21" si="19">J19</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" ref="L19:L21" si="20">K19</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" ref="M19:M21" si="21">L19</f>
+        <v>3</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" ref="N19:N21" si="22">M19</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" ref="O19:O21" si="23">N19</f>
+        <v>3</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" ref="P19:P20" si="24">O19</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" ref="Q19:Q21" si="25">P19</f>
+        <v>3</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" ref="R19:R21" si="26">Q19</f>
+        <v>3</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" ref="S19:S20" si="27">R19</f>
+        <v>3</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" ref="T19:Y21" si="28">S19</f>
+        <v>3</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="V19" s="15">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="X19" s="15">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20" si="29">C20</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20" si="30">D20</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" ref="F20" si="31">E20</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20" si="32">S20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" ref="U20" si="33">T20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" ref="V20" si="34">U20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" ref="W20" si="35">V20</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" ref="X20" si="36">W20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" ref="Y20" si="37">X20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="15">
+        <v>3</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="S21" s="15">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="15">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:Y23" si="38">C23</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <v>3</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="S23" s="15">
+        <v>2</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="W23" s="15">
+        <v>1</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="A2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C1" s="21">
+        <f>D7/22</f>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="D1" s="21">
+        <f>D7</f>
+        <v>60</v>
+      </c>
+      <c r="E1" s="21">
+        <f>D1-C1</f>
+        <v>57.272727272727273</v>
+      </c>
+      <c r="F1" s="21">
+        <f>E1-C1</f>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="G1" s="21">
+        <f>F1-C1</f>
+        <v>51.81818181818182</v>
+      </c>
+      <c r="H1" s="21">
+        <f>G1-C1</f>
+        <v>49.090909090909093</v>
+      </c>
+      <c r="I1" s="21">
+        <f>H1-C1</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="J1" s="21">
+        <f>I1-C1</f>
+        <v>43.63636363636364</v>
+      </c>
+      <c r="K1" s="21">
+        <f>J1-C1</f>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="L1" s="21">
+        <f>K1-C1</f>
+        <v>38.181818181818187</v>
+      </c>
+      <c r="M1" s="21">
+        <f>L1-C1</f>
+        <v>35.45454545454546</v>
+      </c>
+      <c r="N1" s="21">
+        <f>M1-C1</f>
+        <v>32.727272727272734</v>
+      </c>
+      <c r="O1" s="21">
+        <f>N1-C1</f>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="P1" s="21">
+        <f>O1-C1</f>
+        <v>27.27272727272728</v>
+      </c>
+      <c r="Q1" s="21">
+        <f>P1-C1</f>
+        <v>24.545454545454554</v>
+      </c>
+      <c r="R1" s="21">
+        <f>Q1-C1</f>
+        <v>21.818181818181827</v>
+      </c>
+      <c r="S1" s="21">
+        <f>R1-C1</f>
+        <v>19.090909090909101</v>
+      </c>
+      <c r="T1" s="21">
+        <f>S1-C1</f>
+        <v>16.363636363636374</v>
+      </c>
+      <c r="U1" s="21">
+        <f>T1-C1</f>
+        <v>13.636363636363647</v>
+      </c>
+      <c r="V1" s="21">
+        <f>U1-C1</f>
+        <v>10.909090909090921</v>
+      </c>
+      <c r="W1" s="21">
+        <f>V1-C1</f>
+        <v>8.1818181818181941</v>
+      </c>
+      <c r="X1" s="21">
+        <f>W1-C1</f>
+        <v>5.4545454545454675</v>
+      </c>
+      <c r="Y1" s="21">
+        <f>X1-C1</f>
+        <v>2.7272727272727404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43">
+        <v>40912</v>
+      </c>
+      <c r="E6" s="43">
+        <v>40913</v>
+      </c>
+      <c r="F6" s="43">
+        <v>40914</v>
+      </c>
+      <c r="G6" s="43">
+        <v>40915</v>
+      </c>
+      <c r="H6" s="43">
+        <v>40916</v>
+      </c>
+      <c r="I6" s="43">
+        <v>40917</v>
+      </c>
+      <c r="J6" s="43">
+        <v>40918</v>
+      </c>
+      <c r="K6" s="43">
+        <v>40919</v>
+      </c>
+      <c r="L6" s="43">
+        <v>40920</v>
+      </c>
+      <c r="M6" s="43">
+        <v>40921</v>
+      </c>
+      <c r="N6" s="43">
+        <v>40922</v>
+      </c>
+      <c r="O6" s="43">
+        <v>40923</v>
+      </c>
+      <c r="P6" s="43">
+        <v>40924</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>40925</v>
+      </c>
+      <c r="R6" s="43">
+        <v>40926</v>
+      </c>
+      <c r="S6" s="43">
+        <v>40927</v>
+      </c>
+      <c r="T6" s="43">
+        <v>40928</v>
+      </c>
+      <c r="U6" s="43">
+        <v>40929</v>
+      </c>
+      <c r="V6" s="43">
+        <v>40930</v>
+      </c>
+      <c r="W6" s="43">
+        <v>40931</v>
+      </c>
+      <c r="X6" s="43">
+        <v>40932</v>
+      </c>
+      <c r="Y6" s="43">
+        <v>40933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="39">
+        <f>SUM(D8:D22)</f>
+        <v>60</v>
+      </c>
+      <c r="E7" s="39">
+        <f>SUM(E8:E22)</f>
+        <v>62</v>
+      </c>
+      <c r="F7" s="39">
+        <f>SUM(F8:F22)</f>
+        <v>62</v>
+      </c>
+      <c r="G7" s="39">
+        <f>SUM(G8:G22)</f>
+        <v>59</v>
+      </c>
+      <c r="H7" s="39">
+        <f>SUM(H8:H22)</f>
+        <v>58</v>
+      </c>
+      <c r="I7" s="39">
+        <f>SUM(I8:I22)</f>
+        <v>58</v>
+      </c>
+      <c r="J7" s="39">
+        <f>SUM(J8:J22)</f>
+        <v>52</v>
+      </c>
+      <c r="K7" s="39">
+        <f>SUM(K8:K22)</f>
+        <v>48</v>
+      </c>
+      <c r="L7" s="39">
+        <f>SUM(L8:L22)</f>
+        <v>48</v>
+      </c>
+      <c r="M7" s="39">
+        <f>SUM(M8:M22)</f>
+        <v>45</v>
+      </c>
+      <c r="N7" s="39">
+        <f>SUM(N8:N22)</f>
+        <v>39</v>
+      </c>
+      <c r="O7" s="39">
+        <f>SUM(O8:O22)</f>
+        <v>39</v>
+      </c>
+      <c r="P7" s="39">
+        <f>SUM(P8:P22)</f>
+        <v>38</v>
+      </c>
+      <c r="Q7" s="39">
+        <f>SUM(Q8:Q22)</f>
+        <v>33</v>
+      </c>
+      <c r="R7" s="39">
+        <f>SUM(R8:R22)</f>
+        <v>33</v>
+      </c>
+      <c r="S7" s="39">
+        <f>SUM(S8:S22)</f>
+        <v>31</v>
+      </c>
+      <c r="T7" s="39">
+        <f>SUM(T8:T22)</f>
+        <v>26</v>
+      </c>
+      <c r="U7" s="39">
+        <f>SUM(U8:U22)</f>
+        <v>16</v>
+      </c>
+      <c r="V7" s="39">
+        <f>SUM(V8:V22)</f>
+        <v>16</v>
+      </c>
+      <c r="W7" s="39">
+        <f>SUM(W8:W22)</f>
+        <v>14</v>
+      </c>
+      <c r="X7" s="39">
+        <f>SUM(X8:X22)</f>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="39">
+        <f>SUM(Y8:Y22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="20">
+        <f>SUM(C10:C23)</f>
+        <v>60</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D11" si="0">C10</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" ref="E10:E11" si="1">D10</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ref="F10:F11" si="2">E10</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" ref="G10:G11" si="3">F10</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:I11" si="4">G10</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" ref="J10" si="5">I10</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="15">
+        <v>3</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" ref="L10:L11" si="6">K10</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" ref="M10:M11" si="7">L10</f>
+        <v>3</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" ref="N10" si="8">M10</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" ref="O10" si="9">N10</f>
+        <v>3</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" ref="O10:P11" si="10">O10</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" ref="R10:R11" si="11">Q10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" ref="S10" si="12">R10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" ref="T10:T11" si="13">S10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" ref="U10" si="14">T10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" ref="V10:V11" si="15">U10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" ref="W10:W11" si="16">V10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" ref="X10:X11" si="17">W10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" ref="Y10:Y11" si="18">X10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" ref="H11" si="19">G11</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" ref="K11" si="20">J11</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="15">
+        <v>3</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" ref="Q11" si="21">P11</f>
+        <v>3</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="15">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" ref="D13" si="22">C13</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" ref="F13:S13" si="23">E13</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <v>9</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="15">
+        <v>7</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="15">
+        <v>6</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="P13" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="R13" s="15">
+        <v>6</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="T13" s="15">
+        <v>3</v>
+      </c>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="V13" s="15">
+        <v>2</v>
+      </c>
+      <c r="W13" s="15">
+        <v>2</v>
+      </c>
+      <c r="X13" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D15" si="24">C14</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" ref="E14:E15" si="25">D14</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:F15" si="26">E14</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" ref="G14:G15" si="27">F14</f>
+        <v>5</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" ref="H14:H15" si="28">G14</f>
+        <v>5</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" ref="I14:I15" si="29">H14</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" ref="J14:J15" si="30">I14</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" ref="K14:K15" si="31">J14</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14:L15" si="32">K14</f>
+        <v>5</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" ref="M14:M15" si="33">L14</f>
+        <v>5</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" ref="N14:N15" si="34">M14</f>
+        <v>5</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" ref="O14:O15" si="35">N14</f>
+        <v>5</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" ref="P14:P15" si="36">O14</f>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" ref="Q14:Q15" si="37">P14</f>
+        <v>5</v>
+      </c>
+      <c r="R14" s="15">
+        <v>4</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" ref="S14:S15" si="38">R14</f>
+        <v>4</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" ref="T14:T15" si="39">S14</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" ref="U14:U15" si="40">T14</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" ref="V14:V15" si="41">U14</f>
+        <v>4</v>
+      </c>
+      <c r="W14" s="15">
+        <v>2</v>
+      </c>
+      <c r="X14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" ref="R15" si="42">Q15</f>
+        <v>2</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" ref="W15" si="43">V15</f>
+        <v>2</v>
+      </c>
+      <c r="X15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="15">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" ref="D17:S19" si="44">C17</f>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>6</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>6</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="P17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="R17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="S17" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="T17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" ref="T17:Y19" si="45">S17</f>
+        <v>0</v>
       </c>
       <c r="U17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="V17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="X17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="Y17" s="15">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="15">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>17</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>14</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>14</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>14</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>8</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>8</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>8</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>3</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>3</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="33" t="s">
+      <c r="A19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="U19" s="15">
+        <v>3</v>
+      </c>
+      <c r="V19" s="15">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:F22" si="8">C20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" ref="G20:G22" si="9">F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" ref="H20:H22" si="10">G20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" ref="I20:I22" si="11">H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" ref="J20:J22" si="12">I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" ref="K20:K22" si="13">J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" ref="L20:L22" si="14">K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" ref="M20:M22" si="15">L20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" ref="N20:N22" si="16">M20</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" ref="O20:O22" si="17">N20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" ref="P20:P22" si="18">O20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" ref="Q20:Q22" si="19">P20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" ref="R20:R22" si="20">Q20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" ref="S20:S22" si="21">R20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" ref="T20:Y22" si="22">S20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="15">
-        <f t="shared" si="22"/>
+      <c r="A20" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
       <c r="D21" s="15">
-        <f t="shared" ref="D21" si="23">C21</f>
-        <v>0</v>
+        <f t="shared" ref="D21:S22" si="46">C21</f>
+        <v>5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21" si="24">D21</f>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21" si="25">E21</f>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="N21" s="15">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="O21" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="P21" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="Q21" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" ref="T21" si="26">S21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" ref="U21" si="27">T21</f>
-        <v>0</v>
+        <f t="shared" ref="T21:Y22" si="47">T21</f>
+        <v>3</v>
       </c>
       <c r="V21" s="15">
-        <f t="shared" ref="V21" si="28">U21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" ref="W21" si="29">V21</f>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>2</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" ref="X21" si="30">W21</f>
         <v>0</v>
       </c>
       <c r="Y21" s="15">
-        <f t="shared" ref="Y21" si="31">X21</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
       <c r="D22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K22" si="48">J22</f>
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L22" si="49">K22</f>
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="M22" si="50">L22</f>
         <v>0</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="N22" si="51">M22</f>
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="O22" si="52">N22</f>
         <v>0</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P22" si="53">O22</f>
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Q22" si="54">P22</f>
         <v>0</v>
       </c>
       <c r="R22" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="R22" si="55">Q22</f>
         <v>0</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="S22" si="56">R22</f>
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -9252,1634 +11084,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Y24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="70.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="21">
-        <f>D7/22</f>
-        <v>1.6818181818181819</v>
-      </c>
-      <c r="D1" s="21">
-        <f>D7</f>
-        <v>37</v>
-      </c>
-      <c r="E1" s="21">
-        <f>D1-C1</f>
-        <v>35.31818181818182</v>
-      </c>
-      <c r="F1" s="21">
-        <f>E1-C1</f>
-        <v>33.63636363636364</v>
-      </c>
-      <c r="G1" s="21">
-        <f>F1-C1</f>
-        <v>31.954545454545457</v>
-      </c>
-      <c r="H1" s="21">
-        <f>G1-C1</f>
-        <v>30.272727272727273</v>
-      </c>
-      <c r="I1" s="21">
-        <f>H1-C1</f>
-        <v>28.59090909090909</v>
-      </c>
-      <c r="J1" s="21">
-        <f>I1-C1</f>
-        <v>26.909090909090907</v>
-      </c>
-      <c r="K1" s="21">
-        <f>J1-C1</f>
-        <v>25.227272727272723</v>
-      </c>
-      <c r="L1" s="21">
-        <f>K1-C1</f>
-        <v>23.54545454545454</v>
-      </c>
-      <c r="M1" s="21">
-        <f>L1-C1</f>
-        <v>21.863636363636356</v>
-      </c>
-      <c r="N1" s="21">
-        <f>M1-C1</f>
-        <v>20.181818181818173</v>
-      </c>
-      <c r="O1" s="21">
-        <f>N1-C1</f>
-        <v>18.499999999999989</v>
-      </c>
-      <c r="P1" s="21">
-        <f>O1-C1</f>
-        <v>16.818181818181806</v>
-      </c>
-      <c r="Q1" s="21">
-        <f>P1-C1</f>
-        <v>15.136363636363624</v>
-      </c>
-      <c r="R1" s="21">
-        <f>Q1-C1</f>
-        <v>13.454545454545443</v>
-      </c>
-      <c r="S1" s="21">
-        <f>R1-C1</f>
-        <v>11.772727272727261</v>
-      </c>
-      <c r="T1" s="21">
-        <f>S1-C1</f>
-        <v>10.090909090909079</v>
-      </c>
-      <c r="U1" s="21">
-        <f>T1-C1</f>
-        <v>8.4090909090908976</v>
-      </c>
-      <c r="V1" s="21">
-        <f>U1-C1</f>
-        <v>6.727272727272716</v>
-      </c>
-      <c r="W1" s="21">
-        <f>V1-C1</f>
-        <v>5.0454545454545343</v>
-      </c>
-      <c r="X1" s="21">
-        <f>W1-C1</f>
-        <v>3.3636363636363527</v>
-      </c>
-      <c r="Y1" s="21">
-        <f>X1-C1</f>
-        <v>1.6818181818181708</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-    </row>
-    <row r="4" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-    </row>
-    <row r="5" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-    </row>
-    <row r="6" spans="1:25" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="43">
-        <v>40912</v>
-      </c>
-      <c r="E6" s="43">
-        <v>40913</v>
-      </c>
-      <c r="F6" s="43">
-        <v>40914</v>
-      </c>
-      <c r="G6" s="43">
-        <v>40915</v>
-      </c>
-      <c r="H6" s="43">
-        <v>40916</v>
-      </c>
-      <c r="I6" s="43">
-        <v>40917</v>
-      </c>
-      <c r="J6" s="43">
-        <v>40918</v>
-      </c>
-      <c r="K6" s="43">
-        <v>40919</v>
-      </c>
-      <c r="L6" s="43">
-        <v>40920</v>
-      </c>
-      <c r="M6" s="43">
-        <v>40921</v>
-      </c>
-      <c r="N6" s="43">
-        <v>40922</v>
-      </c>
-      <c r="O6" s="43">
-        <v>40923</v>
-      </c>
-      <c r="P6" s="43">
-        <v>40924</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>40925</v>
-      </c>
-      <c r="R6" s="43">
-        <v>40926</v>
-      </c>
-      <c r="S6" s="43">
-        <v>40927</v>
-      </c>
-      <c r="T6" s="43">
-        <v>40928</v>
-      </c>
-      <c r="U6" s="43">
-        <v>40929</v>
-      </c>
-      <c r="V6" s="43">
-        <v>40930</v>
-      </c>
-      <c r="W6" s="43">
-        <v>40931</v>
-      </c>
-      <c r="X6" s="43">
-        <v>40932</v>
-      </c>
-      <c r="Y6" s="43">
-        <v>40933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="39">
-        <f>SUM(D8:D23)</f>
-        <v>37</v>
-      </c>
-      <c r="E7" s="39">
-        <f t="shared" ref="E7:Y7" si="0">SUM(E8:E23)</f>
-        <v>37</v>
-      </c>
-      <c r="F7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="H7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="I7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="J7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="L7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="N7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="O7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="P7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="Q7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="S7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="T7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="U7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="V7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="W7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="X7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="Y7" s="39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="20">
-        <f>SUM(C10:C24)</f>
-        <v>34</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <v>1</v>
-      </c>
-      <c r="P10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>1</v>
-      </c>
-      <c r="R10" s="15">
-        <v>1</v>
-      </c>
-      <c r="S10" s="15">
-        <v>1</v>
-      </c>
-      <c r="T10" s="15">
-        <v>1</v>
-      </c>
-      <c r="U10" s="15">
-        <v>1</v>
-      </c>
-      <c r="V10" s="15">
-        <f t="shared" ref="V10:Y12" si="1">U10</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15">
-        <v>1</v>
-      </c>
-      <c r="P11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15">
-        <v>1</v>
-      </c>
-      <c r="S11" s="15">
-        <v>1</v>
-      </c>
-      <c r="T11" s="15">
-        <v>1</v>
-      </c>
-      <c r="U11" s="15">
-        <v>1</v>
-      </c>
-      <c r="V11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1</v>
-      </c>
-      <c r="O12" s="15">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>1</v>
-      </c>
-      <c r="R12" s="15">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1</v>
-      </c>
-      <c r="T12" s="15">
-        <v>1</v>
-      </c>
-      <c r="U12" s="15">
-        <v>1</v>
-      </c>
-      <c r="V12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
-        <f t="shared" ref="D14" si="2">C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14:U14" si="3">E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14:Y14" si="4">U14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="15">
-        <v>10</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" ref="D18:S20" si="5">C18</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" ref="T18:Y20" si="6">S18</f>
-        <v>10</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="X18" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="Y18" s="15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15">
-        <v>19</v>
-      </c>
-      <c r="D19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="E19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="G19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="I19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="L19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="M19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="O19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="R19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="S19" s="15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="T19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="U19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="V19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="W19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="X19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="Y19" s="15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="U20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="V20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="X20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Y20" s="15">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <f t="shared" ref="D22:S23" si="7">C22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="15">
-        <f t="shared" ref="T22:Y23" si="8">S22</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" ref="K23" si="9">J23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" ref="L23" si="10">K23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" ref="M23" si="11">L23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" ref="N23" si="12">M23</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" ref="O23" si="13">N23</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" ref="P23" si="14">O23</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" ref="Q23" si="15">P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="15">
-        <f t="shared" ref="R23" si="16">Q23</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="15">
-        <f t="shared" ref="S23" si="17">R23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="A2:S2"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>